--- a/25종목 수익률 결과 저장/20170905 25종목.xlsx
+++ b/25종목 수익률 결과 저장/20170905 25종목.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="시총제한x" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>A078000</t>
   </si>
@@ -238,132 +238,177 @@
     <t>A092220</t>
   </si>
   <si>
-    <t>W100</t>
-  </si>
-  <si>
     <t>A037350</t>
   </si>
   <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Local/Shares</t>
+  </si>
+  <si>
+    <t>Txt</t>
+  </si>
+  <si>
+    <t>CPD-1TD</t>
+  </si>
+  <si>
+    <t>S102300</t>
+  </si>
+  <si>
+    <t>S100100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R100200</t>
+  </si>
+  <si>
+    <t>S100300</t>
+  </si>
+  <si>
+    <t>코스피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>All Listed</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적하락종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적상승종목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Refresh     </t>
+  </si>
+  <si>
+    <t>평균누적수익률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A005930</t>
+  </si>
+  <si>
+    <t>A079370</t>
+  </si>
+  <si>
+    <t>A016610</t>
+  </si>
+  <si>
+    <t>A032190</t>
+  </si>
+  <si>
+    <t>A009200</t>
+  </si>
+  <si>
+    <t>A042420</t>
+  </si>
+  <si>
+    <t>A023590</t>
+  </si>
+  <si>
+    <t>A054800</t>
+  </si>
+  <si>
+    <t>A001500</t>
+  </si>
+  <si>
+    <t>A005010</t>
+  </si>
+  <si>
+    <t>A215000</t>
+  </si>
+  <si>
+    <t>A049070</t>
+  </si>
+  <si>
+    <t>A049520</t>
+  </si>
+  <si>
+    <t>A036710</t>
+  </si>
+  <si>
+    <t>A035510</t>
+  </si>
+  <si>
+    <t>A002300</t>
+  </si>
+  <si>
+    <t>A067310</t>
+  </si>
+  <si>
+    <t>A030210</t>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대차투자증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-06 15:55:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Base Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Local/Shares</t>
-  </si>
-  <si>
-    <t>Txt</t>
-  </si>
-  <si>
-    <t>CPD-1TD</t>
-  </si>
-  <si>
-    <t>S102300</t>
-  </si>
-  <si>
-    <t>S100100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R100200</t>
-  </si>
-  <si>
-    <t>S100300</t>
-  </si>
-  <si>
-    <t>코스피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean</t>
-  </si>
-  <si>
-    <t>All Listed</t>
-  </si>
-  <si>
-    <t>Account Type</t>
-  </si>
-  <si>
-    <t>MAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적하락종목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누적상승종목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     Refresh     </t>
-  </si>
-  <si>
-    <t>평균누적수익률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A005930</t>
-  </si>
-  <si>
-    <t>A079370</t>
-  </si>
-  <si>
-    <t>A016610</t>
-  </si>
-  <si>
-    <t>A032190</t>
-  </si>
-  <si>
-    <t>A009200</t>
-  </si>
-  <si>
-    <t>A042420</t>
-  </si>
-  <si>
-    <t>A023590</t>
-  </si>
-  <si>
-    <t>A054800</t>
-  </si>
-  <si>
-    <t>A001500</t>
-  </si>
-  <si>
-    <t>A005010</t>
-  </si>
-  <si>
-    <t>A215000</t>
-  </si>
-  <si>
-    <t>A049070</t>
-  </si>
-  <si>
-    <t>A049520</t>
-  </si>
-  <si>
-    <t>A036710</t>
-  </si>
-  <si>
-    <t>A035510</t>
-  </si>
-  <si>
-    <t>A002300</t>
-  </si>
-  <si>
-    <t>A067310</t>
-  </si>
-  <si>
-    <t>A030210</t>
-  </si>
-  <si>
-    <t>Code</t>
+    <t>결산월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,11 +416,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Last Update : 2017-09-05 14:46:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
+    <t>삼성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성도이엔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우데이타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림페이퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네오위즈홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴스틸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인탑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심텍홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계 I&amp;C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국제지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나마이크론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTB투자증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKS001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-06 15:57:33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -383,22 +524,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Base Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,139 +532,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신세계 I&amp;C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KTB투자증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-05 14:47:08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성도이엔지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제우스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동부증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우데이타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무림페이퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네오위즈홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대차투자증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴스틸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인탑스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심텍홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국제지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나마이크론</t>
+    <t>KOSPI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -991,74 +984,74 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1">
         <f>AVERAGE(H14:H38)</f>
-        <v>-8.5075889201691127E-3</v>
+        <v>-1.6523533453545167E-2</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="G2" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <f>COUNTIF(H14:H38,"&gt;=0")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <f>COUNTIF(H14:H38,"&lt;0")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="1">
         <f>MAX(H14:H38)</f>
-        <v>0.14465408805031443</v>
+        <v>0.12578616352201255</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -1066,11 +1059,11 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1">
         <f>MIN(H14:H38)</f>
-        <v>-3.9603960396039639E-2</v>
+        <v>-5.4621848739495826E-2</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -1081,11 +1074,11 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1">
         <f>O14/N14-1</f>
-        <v>-1.3345501571503493E-2</v>
+        <v>-1.5474845441966201E-2</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1102,124 +1095,124 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9">
         <v>20170831</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="9">
         <v>20170831</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9">
         <v>20170831</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P10" s="9">
         <v>20170831</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1228,7 +1221,7 @@
       <c r="G12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1238,40 +1231,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>57</v>
@@ -1282,10 +1275,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3">
         <v>12</v>
@@ -1294,36 +1287,36 @@
         <v>2316000</v>
       </c>
       <c r="E14" s="2">
-        <v>2302000</v>
+        <v>2338000</v>
       </c>
       <c r="F14" s="2">
         <v>335262855404000</v>
       </c>
       <c r="G14" s="2">
-        <v>333354003588000</v>
+        <v>337951995052000</v>
       </c>
       <c r="H14" s="1">
-        <f>E14/D14-1</f>
-        <v>-6.044905008635526E-3</v>
+        <f t="shared" ref="H14:H38" si="0">E14/D14-1</f>
+        <v>9.4991364421417313E-3</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="6">
-        <v>2443.52</v>
+        <v>2363.19</v>
       </c>
       <c r="O14" s="6">
-        <v>2410.91</v>
+        <v>2326.62</v>
       </c>
       <c r="P14" s="5">
         <v>1535629495111100</v>
       </c>
       <c r="Q14" s="5">
-        <v>1514396696041720</v>
+        <v>1512278525412780</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -1331,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
@@ -1340,25 +1333,25 @@
         <v>12050</v>
       </c>
       <c r="E15" s="2">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="F15" s="2">
         <v>262782652450</v>
       </c>
       <c r="G15" s="2">
-        <v>255149961300</v>
+        <v>248607654600</v>
       </c>
       <c r="H15" s="1">
-        <f>E15/D15-1</f>
-        <v>-2.9045643153526979E-2</v>
+        <f t="shared" si="0"/>
+        <v>-5.3941908713692976E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
@@ -1367,17 +1360,17 @@
         <v>7170</v>
       </c>
       <c r="E16" s="2">
-        <v>7180</v>
+        <v>7140</v>
       </c>
       <c r="F16" s="2">
         <v>110919900000</v>
       </c>
       <c r="G16" s="2">
-        <v>111074600000</v>
+        <v>110455800000</v>
       </c>
       <c r="H16" s="1">
-        <f>E16/D16-1</f>
-        <v>1.3947001394700731E-3</v>
+        <f t="shared" si="0"/>
+        <v>-4.1841004184099972E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -1385,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
@@ -1394,25 +1387,25 @@
         <v>5410</v>
       </c>
       <c r="E17" s="2">
-        <v>5300</v>
+        <v>5250</v>
       </c>
       <c r="F17" s="2">
         <v>231747185380</v>
       </c>
       <c r="G17" s="2">
-        <v>227035135400</v>
+        <v>224893294500</v>
       </c>
       <c r="H17" s="1">
-        <f>E17/D17-1</f>
-        <v>-2.0332717190388205E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.957486136783738E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3">
         <v>12</v>
@@ -1421,25 +1414,25 @@
         <v>16450</v>
       </c>
       <c r="E18" s="2">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="F18" s="2">
         <v>170816800000</v>
       </c>
       <c r="G18" s="2">
-        <v>164067200000</v>
+        <v>163028800000</v>
       </c>
       <c r="H18" s="1">
-        <f>E18/D18-1</f>
-        <v>-3.951367781155013E-2</v>
+        <f t="shared" si="0"/>
+        <v>-4.5592705167173286E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
@@ -1448,25 +1441,25 @@
         <v>3845</v>
       </c>
       <c r="E19" s="2">
-        <v>3750</v>
+        <v>3700</v>
       </c>
       <c r="F19" s="2">
         <v>163206365705</v>
       </c>
       <c r="G19" s="2">
-        <v>159173958750</v>
+        <v>157051639300</v>
       </c>
       <c r="H19" s="1">
-        <f>E19/D19-1</f>
-        <v>-2.4707412223667125E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.7711313394018231E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
@@ -1475,17 +1468,17 @@
         <v>11900</v>
       </c>
       <c r="E20" s="2">
-        <v>11450</v>
+        <v>11250</v>
       </c>
       <c r="F20" s="2">
         <v>455770000000</v>
       </c>
       <c r="G20" s="2">
-        <v>438535000000</v>
+        <v>430875000000</v>
       </c>
       <c r="H20" s="1">
-        <f>E20/D20-1</f>
-        <v>-3.7815126050420145E-2</v>
+        <f t="shared" si="0"/>
+        <v>-5.4621848739495826E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -1493,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3">
         <v>12</v>
@@ -1502,25 +1495,25 @@
         <v>9060</v>
       </c>
       <c r="E21" s="2">
-        <v>8990</v>
+        <v>8960</v>
       </c>
       <c r="F21" s="2">
         <v>110429893800</v>
       </c>
       <c r="G21" s="2">
-        <v>109576682700</v>
+        <v>109211020800</v>
       </c>
       <c r="H21" s="1">
-        <f>E21/D21-1</f>
-        <v>-7.7262693156733286E-3</v>
+        <f t="shared" si="0"/>
+        <v>-1.103752759381893E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C22" s="3">
         <v>12</v>
@@ -1529,25 +1522,25 @@
         <v>2605</v>
       </c>
       <c r="E22" s="2">
-        <v>2630</v>
+        <v>2600</v>
       </c>
       <c r="F22" s="2">
         <v>108392252550</v>
       </c>
       <c r="G22" s="2">
-        <v>109432485300</v>
+        <v>108184206000</v>
       </c>
       <c r="H22" s="1">
-        <f>E22/D22-1</f>
-        <v>9.5969289827255722E-3</v>
+        <f t="shared" si="0"/>
+        <v>-1.9193857965451588E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3">
         <v>12</v>
@@ -1556,25 +1549,25 @@
         <v>14700</v>
       </c>
       <c r="E23" s="2">
-        <v>14500</v>
+        <v>14250</v>
       </c>
       <c r="F23" s="2">
         <v>130195930200</v>
       </c>
       <c r="G23" s="2">
-        <v>128424557000</v>
+        <v>126210340500</v>
       </c>
       <c r="H23" s="1">
-        <f>E23/D23-1</f>
-        <v>-1.3605442176870763E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.0612244897959218E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
@@ -1583,17 +1576,17 @@
         <v>19700</v>
       </c>
       <c r="E24" s="2">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="F24" s="2">
         <v>883872354900</v>
       </c>
       <c r="G24" s="2">
-        <v>874899031500</v>
+        <v>865925708100</v>
       </c>
       <c r="H24" s="1">
-        <f>E24/D24-1</f>
-        <v>-1.0152284263959421E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.0304568527918732E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -1601,7 +1594,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
@@ -1610,25 +1603,25 @@
         <v>1590</v>
       </c>
       <c r="E25" s="2">
-        <v>1820</v>
+        <v>1790</v>
       </c>
       <c r="F25" s="2">
         <v>144630015660</v>
       </c>
       <c r="G25" s="2">
-        <v>165551338680</v>
+        <v>162822470460</v>
       </c>
       <c r="H25" s="1">
-        <f>E25/D25-1</f>
-        <v>0.14465408805031443</v>
+        <f t="shared" si="0"/>
+        <v>0.12578616352201255</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
@@ -1637,25 +1630,25 @@
         <v>13000</v>
       </c>
       <c r="E26" s="2">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="F26" s="2">
         <v>134520828000</v>
       </c>
       <c r="G26" s="2">
-        <v>134520828000</v>
+        <v>135555603600</v>
       </c>
       <c r="H26" s="1">
-        <f>E26/D26-1</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7.692307692307665E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3">
         <v>12</v>
@@ -1664,25 +1657,25 @@
         <v>10950</v>
       </c>
       <c r="E27" s="2">
-        <v>10850</v>
+        <v>10500</v>
       </c>
       <c r="F27" s="2">
         <v>321241365450</v>
       </c>
       <c r="G27" s="2">
-        <v>318307654350</v>
+        <v>308039665500</v>
       </c>
       <c r="H27" s="1">
-        <f>E27/D27-1</f>
-        <v>-9.1324200913242004E-3</v>
+        <f t="shared" si="0"/>
+        <v>-4.1095890410958957E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C28" s="3">
         <v>12</v>
@@ -1691,25 +1684,25 @@
         <v>15950</v>
       </c>
       <c r="E28" s="2">
-        <v>15750</v>
+        <v>15700</v>
       </c>
       <c r="F28" s="2">
         <v>110351941150</v>
       </c>
       <c r="G28" s="2">
-        <v>108968217750</v>
+        <v>108622286900</v>
       </c>
       <c r="H28" s="1">
-        <f>E28/D28-1</f>
-        <v>-1.2539184952978011E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.5673981191222541E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C29" s="3">
         <v>12</v>
@@ -1718,25 +1711,25 @@
         <v>49200</v>
       </c>
       <c r="E29" s="2">
-        <v>48200</v>
+        <v>47250</v>
       </c>
       <c r="F29" s="2">
         <v>308750418000</v>
       </c>
       <c r="G29" s="2">
-        <v>302475003000</v>
+        <v>296513358750</v>
       </c>
       <c r="H29" s="1">
-        <f>E29/D29-1</f>
-        <v>-2.0325203252032575E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.963414634146345E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3">
         <v>12</v>
@@ -1754,16 +1747,16 @@
         <v>190060000000</v>
       </c>
       <c r="H30" s="1">
-        <f>E30/D30-1</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3">
         <v>12</v>
@@ -1772,25 +1765,25 @@
         <v>7960</v>
       </c>
       <c r="E31" s="2">
-        <v>7730</v>
+        <v>7700</v>
       </c>
       <c r="F31" s="2">
         <v>173408090560</v>
       </c>
       <c r="G31" s="2">
-        <v>168397555280</v>
+        <v>167744007200</v>
       </c>
       <c r="H31" s="1">
-        <f>E31/D31-1</f>
-        <v>-2.8894472361809087E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.2663316582914548E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3">
         <v>12</v>
@@ -1808,7 +1801,7 @@
         <v>101546874030</v>
       </c>
       <c r="H32" s="1">
-        <f>E32/D32-1</f>
+        <f t="shared" si="0"/>
         <v>-3.9603960396039639E-2</v>
       </c>
     </row>
@@ -1817,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3">
         <v>12</v>
@@ -1826,25 +1819,25 @@
         <v>14500</v>
       </c>
       <c r="E33" s="2">
-        <v>14400</v>
+        <v>14250</v>
       </c>
       <c r="F33" s="2">
         <v>174632200000</v>
       </c>
       <c r="G33" s="2">
-        <v>173427840000</v>
+        <v>171621300000</v>
       </c>
       <c r="H33" s="1">
-        <f>E33/D33-1</f>
-        <v>-6.8965517241379448E-3</v>
+        <f t="shared" si="0"/>
+        <v>-1.7241379310344862E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3">
         <v>12</v>
@@ -1853,25 +1846,25 @@
         <v>79200</v>
       </c>
       <c r="E34" s="2">
-        <v>77900</v>
+        <v>77700</v>
       </c>
       <c r="F34" s="2">
         <v>136224000000</v>
       </c>
       <c r="G34" s="2">
-        <v>133988000000</v>
+        <v>133644000000</v>
       </c>
       <c r="H34" s="1">
-        <f>E34/D34-1</f>
-        <v>-1.6414141414141437E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.8939393939393923E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3">
         <v>12</v>
@@ -1880,25 +1873,25 @@
         <v>28600</v>
       </c>
       <c r="E35" s="2">
-        <v>27950</v>
+        <v>28200</v>
       </c>
       <c r="F35" s="2">
         <v>143141541400</v>
       </c>
       <c r="G35" s="2">
-        <v>139888324550</v>
+        <v>141139561800</v>
       </c>
       <c r="H35" s="1">
-        <f>E35/D35-1</f>
-        <v>-2.2727272727272707E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.3986013986013957E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3">
         <v>12</v>
@@ -1907,25 +1900,25 @@
         <v>4965</v>
       </c>
       <c r="E36" s="2">
-        <v>4990</v>
+        <v>4915</v>
       </c>
       <c r="F36" s="2">
         <v>111069264390</v>
       </c>
       <c r="G36" s="2">
-        <v>111628525540</v>
+        <v>109950742090</v>
       </c>
       <c r="H36" s="1">
-        <f>E36/D36-1</f>
-        <v>5.0352467270895485E-3</v>
+        <f t="shared" si="0"/>
+        <v>-1.0070493454179208E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3">
         <v>12</v>
@@ -1934,17 +1927,17 @@
         <v>3585</v>
       </c>
       <c r="E37" s="2">
-        <v>3500</v>
+        <v>3405</v>
       </c>
       <c r="F37" s="2">
         <v>216226019820</v>
       </c>
       <c r="G37" s="2">
-        <v>211099322000</v>
+        <v>205369483260</v>
       </c>
       <c r="H37" s="1">
-        <f>E37/D37-1</f>
-        <v>-2.3709902370990243E-2</v>
+        <f t="shared" si="0"/>
+        <v>-5.0209205020920522E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -1952,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3">
         <v>12</v>
@@ -1961,17 +1954,17 @@
         <v>11950</v>
       </c>
       <c r="E38" s="2">
-        <v>11900</v>
+        <v>12100</v>
       </c>
       <c r="F38" s="2">
         <v>115947336700</v>
       </c>
       <c r="G38" s="2">
-        <v>115462201400</v>
+        <v>117402742600</v>
       </c>
       <c r="H38" s="1">
-        <f>E38/D38-1</f>
-        <v>-4.1841004184099972E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.2552301255230214E-2</v>
       </c>
     </row>
   </sheetData>

--- a/25종목 수익률 결과 저장/20170905 25종목.xlsx
+++ b/25종목 수익률 결과 저장/20170905 25종목.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
   </bookViews>
   <sheets>
-    <sheet name="32343537" sheetId="4" r:id="rId1"/>
-    <sheet name="25개중 3개 모두 포함" sheetId="9" r:id="rId2"/>
-    <sheet name="323438" sheetId="1" r:id="rId3"/>
-    <sheet name="32333738" sheetId="2" r:id="rId4"/>
-    <sheet name="323438_200개" sheetId="5" r:id="rId5"/>
-    <sheet name="32343537_200개" sheetId="6" r:id="rId6"/>
-    <sheet name="32333738_200개" sheetId="7" r:id="rId7"/>
-    <sheet name="200개중 3개모두 포함" sheetId="8" r:id="rId8"/>
+    <sheet name="3233343740" sheetId="10" r:id="rId1"/>
+    <sheet name="32343537" sheetId="4" r:id="rId2"/>
+    <sheet name="25개중 3개 모두 포함" sheetId="9" r:id="rId3"/>
+    <sheet name="323438" sheetId="1" r:id="rId4"/>
+    <sheet name="32333738" sheetId="2" r:id="rId5"/>
+    <sheet name="323438_200개" sheetId="5" r:id="rId6"/>
+    <sheet name="32343537_200개" sheetId="6" r:id="rId7"/>
+    <sheet name="32333738_200개" sheetId="7" r:id="rId8"/>
+    <sheet name="200개중 3개모두 포함" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -544,6 +545,168 @@
         </r>
       </text>
     </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>이상훈</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0 or AL - All Listed
+1 or MF - Manufacturing
+2 or BK - Banking
+3 or IS - Insurance
+4 or SC - Securities
+6 or MS - Mutual Savings
+7 or MB - Merchant Banking
+8 or CF - Credit Finance
+9 or OF - Other Financing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>K - Korean
+E - English</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0 or AL - All Listed
+1 or MF - Manufacturing
+2 or BK - Banking
+3 or IS - Insurance
+4 or SC - Securities
+6 or MS - Mutual Savings
+7 or MB - Merchant Banking
+8 or CF - Credit Finance
+9 or OF - Other Financing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>K - Korean
+E - English</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+KRW
+KRW thou
+KRW mn
+KRW 100mn
+KRW bil
+%
+R
+X
+No.
+Shares
+Shares thou
+Shares mn
+Actual
+thou
+mn
+100mn
+bil
+dt
+Txt
+Type
+KRW/Shares
+KRW/pt.
+P
+#
+%p</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움체"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+KRW
+KRW thou
+KRW mn
+KRW 100mn
+KRW bil
+%
+R
+X
+No.
+Shares
+Shares thou
+Shares mn
+Actual
+thou
+mn
+100mn
+bil
+dt
+Txt
+Type
+KRW/Shares
+KRW/pt.
+P
+#
+%p</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L20" authorId="0" shapeId="0">
       <text>
         <r>
@@ -625,7 +788,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4555" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="1158">
   <si>
     <t>A078000</t>
   </si>
@@ -3685,30 +3848,432 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>동부증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우데이타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인탑스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이크레더블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계 I&amp;C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKS001</t>
+  </si>
+  <si>
+    <t>S100100</t>
+  </si>
+  <si>
+    <t>포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그네틱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나마이크론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG이니시스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가온전선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스에이엠티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두산건설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코오롱글로벌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성도이엔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나마이크론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-13 16:45:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다우데이타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>제우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>미코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시그네틱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유비쿼스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥국화재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>동부증권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>삼지전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심텍홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화손해보험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교보증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림페이퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-13 16:46:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-19 13:05:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성보화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼지전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대상사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동부증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-19 13:05:59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-19 13:06:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결산월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠케이전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성도이엔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존뉴딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>다우데이타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이라이콤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무림페이퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>네오위즈홀딩스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>다우기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>KEC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아이디스홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대차투자증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴스틸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골프존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>인탑스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유아이엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>심텍홀딩스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3721,29 +4286,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>한국제지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나마이크론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTB투자증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔코웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-19 13:06:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삼성전자</t>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한라</t>
+    <t>결산월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IKS001</t>
-  </si>
-  <si>
-    <t>S100100</t>
-  </si>
-  <si>
-    <t>포트</t>
+    <t>종가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Last Update : 2017-09-13 16:45:22</t>
+    <t>시가총액(전체)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-19 13:06:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3755,7 +4366,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결산월</t>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSPI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-09-19 13:12:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정주가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3763,23 +4402,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삼성전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엠케이전자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>시그네틱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>KEC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시그네틱스</t>
+    <t>신세계 I&amp;C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제우스</t>
+    <t>삼지전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KG이니시스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3787,47 +4434,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하나마이크론</t>
+    <t>골프존</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>다우데이타</t>
+    <t>심텍홀딩스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신세계 I&amp;C</t>
+    <t>이랜텍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KG이니시스</t>
+    <t>인탑스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성보화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가온전선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼지전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대상사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에스에이엠티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두산건설</t>
+    <t>유니퀘스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3835,27 +4458,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이크레더블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APS홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인탑스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코오롱글로벌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-13 16:45:30</t>
+    <t>Last Update : 2017-09-19 13:13:32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3887,291 +4490,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-13 16:45:37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엠케이전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성도이엔지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이라이콤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무림페이퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우기술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현대차투자증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴스틸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이엘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국제지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나마이크론</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KTB투자증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텔코웨어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-13 16:45:42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOSPI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-13 16:45:55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정주가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시가총액(전체)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다우데이타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제우스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미코</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시그네틱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유비쿼스홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흥국화재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동부증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼지전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>심텍홀딩스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골프존뉴딘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한화손해보험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교보증권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무림페이퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-13 16:46:07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-09-13 16:46:47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결산월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4630,10 +4949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:HE38"/>
+  <dimension ref="A1:HE41"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4648,20 +4967,20 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1010</v>
+        <v>1129</v>
       </c>
       <c r="G1" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="1">
-        <f>AVERAGE(H14:H38)</f>
-        <v>-1.8357568743784171E-2</v>
+        <f>AVERAGE(H14:H39)</f>
+        <v>-1.0728335582201721E-2</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>1038</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -4669,8 +4988,8 @@
         <v>22</v>
       </c>
       <c r="H2">
-        <f>COUNTIF(H14:H38,"&gt;=0")</f>
-        <v>7</v>
+        <f>COUNTIF(H14:H39,"&gt;=0")</f>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -4681,11 +5000,11 @@
         <v>21</v>
       </c>
       <c r="H3">
-        <f>COUNTIF(H14:H38,"&lt;0")</f>
-        <v>18</v>
+        <f>COUNTIF(H14:H39,"&lt;0")</f>
+        <v>16</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1039</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -4702,8 +5021,8 @@
         <v>20</v>
       </c>
       <c r="H4" s="1">
-        <f>MAX(H14:H38)</f>
-        <v>7.0811744386873876E-2</v>
+        <f>MAX(H14:H39)</f>
+        <v>0.13298791018998268</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>19</v>
@@ -4723,8 +5042,8 @@
         <v>16</v>
       </c>
       <c r="H5" s="1">
-        <f>MIN(H14:H38)</f>
-        <v>-8.7797619047619069E-2</v>
+        <f>MIN(H14:H39)</f>
+        <v>-0.13355408388520973</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -4739,7 +5058,7 @@
       </c>
       <c r="H6" s="1">
         <f>O14/N14-1</f>
-        <v>9.6479758292811191E-4</v>
+        <v>2.3282089040661091E-2</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -4756,7 +5075,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>984</v>
+        <v>1128</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>13</v>
@@ -4775,7 +5094,7 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>1040</v>
+        <v>1150</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>13</v>
@@ -4814,7 +5133,7 @@
       <c r="H10" s="1"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>1041</v>
+        <v>1151</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9">
@@ -4833,7 +5152,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>1011</v>
+        <v>1130</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -4852,7 +5171,7 @@
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>1042</v>
+        <v>1152</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>9</v>
@@ -4873,7 +5192,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>987</v>
+        <v>1131</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4882,7 +5201,7 @@
       <c r="G12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>1045</v>
+        <v>1155</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -4892,43 +5211,43 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>986</v>
+        <v>1063</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>988</v>
+        <v>1132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>988</v>
+        <v>1132</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1014</v>
+        <v>1133</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1043</v>
+        <v>1153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>1044</v>
+        <v>1154</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>1046</v>
+        <v>1007</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>1047</v>
+        <v>1126</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>992</v>
+        <v>1126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>1048</v>
+        <v>1156</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>989</v>
@@ -4939,7 +5258,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="C14" s="3">
         <v>12</v>
@@ -4948,306 +5267,306 @@
         <v>2316000</v>
       </c>
       <c r="E14" s="2">
-        <v>2480000</v>
+        <v>2624000</v>
       </c>
       <c r="F14" s="2">
         <v>335262855404000</v>
       </c>
       <c r="G14" s="2">
-        <v>359399768320000</v>
+        <v>379467824956000</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:H38" si="0">E14/D14-1</f>
-        <v>7.0811744386873876E-2</v>
+        <f t="shared" ref="H14:H41" si="0">E14/D14-1</f>
+        <v>0.13298791018998268</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>993</v>
+        <v>1157</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="6">
         <v>2363.19</v>
       </c>
       <c r="O14" s="6">
-        <v>2365.4699999999998</v>
+        <v>2418.21</v>
       </c>
       <c r="P14" s="5">
         <v>1535629495111100</v>
       </c>
       <c r="Q14" s="5">
-        <v>1539474471819830</v>
+        <v>1573692545495320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>12050</v>
+        <v>7170</v>
       </c>
       <c r="E15" s="2">
-        <v>11700</v>
+        <v>7430</v>
       </c>
       <c r="F15" s="2">
-        <v>262782652450</v>
+        <v>110919900000</v>
       </c>
       <c r="G15" s="2">
-        <v>255149961300</v>
+        <v>114942100000</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9045643153526979E-2</v>
+        <v>3.6262203626220346E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1017</v>
+        <v>1134</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>1590</v>
+        <v>12050</v>
       </c>
       <c r="E16" s="2">
-        <v>1470</v>
+        <v>12950</v>
       </c>
       <c r="F16" s="2">
-        <v>144630015660</v>
+        <v>262782652450</v>
       </c>
       <c r="G16" s="2">
-        <v>133714542780</v>
+        <v>282409572550</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>-7.547169811320753E-2</v>
+        <v>7.4688796680497882E-2</v>
       </c>
     </row>
     <row r="17" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>1420</v>
+        <v>4965</v>
       </c>
       <c r="E17" s="2">
-        <v>1475</v>
+        <v>5120</v>
       </c>
       <c r="F17" s="2">
-        <v>121734212980</v>
+        <v>111069264390</v>
       </c>
       <c r="G17" s="2">
-        <v>126449270525</v>
+        <v>114536683520</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>3.8732394366197243E-2</v>
+        <v>3.1218529707955689E-2</v>
       </c>
     </row>
     <row r="18" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1019</v>
+        <v>1135</v>
       </c>
       <c r="C18" s="3">
         <v>12</v>
       </c>
       <c r="D18" s="2">
-        <v>16450</v>
+        <v>1420</v>
       </c>
       <c r="E18" s="2">
-        <v>15950</v>
+        <v>1480</v>
       </c>
       <c r="F18" s="2">
-        <v>170816800000</v>
+        <v>121734212980</v>
       </c>
       <c r="G18" s="2">
-        <v>165624800000</v>
+        <v>126877912120</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>-3.039513677811545E-2</v>
+        <v>4.2253521126760507E-2</v>
       </c>
     </row>
     <row r="19" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1020</v>
+        <v>1136</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
       </c>
       <c r="D19" s="2">
-        <v>9060</v>
+        <v>16450</v>
       </c>
       <c r="E19" s="2">
-        <v>8630</v>
+        <v>16400</v>
       </c>
       <c r="F19" s="2">
-        <v>110429893800</v>
+        <v>170816800000</v>
       </c>
       <c r="G19" s="2">
-        <v>105188739900</v>
+        <v>170297600000</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>-4.7461368653421654E-2</v>
+        <v>-3.0395136778115228E-3</v>
       </c>
     </row>
     <row r="20" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1021</v>
+        <v>1137</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
       </c>
       <c r="D20" s="2">
-        <v>4965</v>
+        <v>1590</v>
       </c>
       <c r="E20" s="2">
-        <v>4870</v>
+        <v>1540</v>
       </c>
       <c r="F20" s="2">
-        <v>111069264390</v>
+        <v>144630015660</v>
       </c>
       <c r="G20" s="2">
-        <v>108944072020</v>
+        <v>157611671140</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9133937562940573E-2</v>
+        <v>-3.1446540880503138E-2</v>
       </c>
     </row>
     <row r="21" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1022</v>
+        <v>1138</v>
       </c>
       <c r="C21" s="3">
         <v>12</v>
       </c>
       <c r="D21" s="2">
-        <v>11900</v>
+        <v>79200</v>
       </c>
       <c r="E21" s="2">
-        <v>11100</v>
+        <v>77400</v>
       </c>
       <c r="F21" s="2">
-        <v>455770000000</v>
+        <v>136224000000</v>
       </c>
       <c r="G21" s="2">
-        <v>425130000000</v>
+        <v>133128000000</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>-6.7226890756302504E-2</v>
+        <v>-2.2727272727272707E-2</v>
       </c>
     </row>
     <row r="22" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
       <c r="C22" s="3">
         <v>12</v>
       </c>
       <c r="D22" s="2">
-        <v>79200</v>
+        <v>11900</v>
       </c>
       <c r="E22" s="2">
-        <v>77100</v>
+        <v>11400</v>
       </c>
       <c r="F22" s="2">
-        <v>136224000000</v>
+        <v>455770000000</v>
       </c>
       <c r="G22" s="2">
-        <v>132612000000</v>
+        <v>436620000000</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>-2.6515151515151492E-2</v>
+        <v>-4.2016806722689037E-2</v>
       </c>
     </row>
     <row r="23" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>994</v>
+        <v>1139</v>
       </c>
       <c r="C23" s="3">
         <v>12</v>
       </c>
       <c r="D23" s="2">
-        <v>5410</v>
+        <v>8450</v>
       </c>
       <c r="E23" s="2">
-        <v>5270</v>
+        <v>8110</v>
       </c>
       <c r="F23" s="2">
-        <v>231747185380</v>
+        <v>137891510900</v>
       </c>
       <c r="G23" s="2">
-        <v>225750030860</v>
+        <v>132343213420</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5878003696857665E-2</v>
+        <v>-4.0236686390532572E-2</v>
       </c>
     </row>
     <row r="24" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
       </c>
       <c r="D24" s="2">
-        <v>12550</v>
+        <v>6720</v>
       </c>
       <c r="E24" s="2">
-        <v>12350</v>
+        <v>6180</v>
       </c>
       <c r="F24" s="2">
-        <v>333655316550</v>
+        <v>108031022400</v>
       </c>
       <c r="G24" s="2">
-        <v>328338100350</v>
+        <v>99349958100</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>-1.5936254980079667E-2</v>
+        <v>-8.0357142857142905E-2</v>
       </c>
       <c r="M24">
         <v>0.90506832727901754</v>
@@ -5846,29 +6165,29 @@
     </row>
     <row r="25" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>6720</v>
+        <v>6140</v>
       </c>
       <c r="E25" s="2">
-        <v>6130</v>
+        <v>6240</v>
       </c>
       <c r="F25" s="2">
-        <v>108031022400</v>
+        <v>122922800000</v>
       </c>
       <c r="G25" s="2">
-        <v>98546155850</v>
+        <v>124924800000</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>-8.7797619047619069E-2</v>
+        <v>1.6286644951140072E-2</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -6470,29 +6789,29 @@
     </row>
     <row r="26" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1026</v>
+        <v>1140</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
       </c>
       <c r="D26" s="2">
-        <v>6140</v>
+        <v>12550</v>
       </c>
       <c r="E26" s="2">
-        <v>6270</v>
+        <v>11950</v>
       </c>
       <c r="F26" s="2">
-        <v>122922800000</v>
+        <v>333655316550</v>
       </c>
       <c r="G26" s="2">
-        <v>125525400000</v>
+        <v>317703667950</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>2.1172638436482094E-2</v>
+        <v>-4.7808764940239001E-2</v>
       </c>
       <c r="M26">
         <f>M25-M24</f>
@@ -7300,29 +7619,29 @@
     </row>
     <row r="27" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1027</v>
+        <v>994</v>
       </c>
       <c r="C27" s="3">
         <v>12</v>
       </c>
       <c r="D27" s="2">
-        <v>23600</v>
+        <v>5410</v>
       </c>
       <c r="E27" s="2">
-        <v>23700</v>
+        <v>5110</v>
       </c>
       <c r="F27" s="2">
-        <v>98184189200</v>
+        <v>231747185380</v>
       </c>
       <c r="G27" s="2">
-        <v>98600223900</v>
+        <v>218896139980</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>4.237288135593209E-3</v>
+        <v>-5.5452865064695045E-2</v>
       </c>
       <c r="HC27">
         <f>COUNTIF(CR26:HB26,"&gt;0")</f>
@@ -7338,218 +7657,218 @@
     </row>
     <row r="28" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1028</v>
+        <v>1141</v>
       </c>
       <c r="C28" s="3">
         <v>12</v>
       </c>
       <c r="D28" s="2">
-        <v>8450</v>
+        <v>9060</v>
       </c>
       <c r="E28" s="2">
-        <v>8110</v>
+        <v>7850</v>
       </c>
       <c r="F28" s="2">
-        <v>137891510900</v>
+        <v>110429893800</v>
       </c>
       <c r="G28" s="2">
-        <v>132343213420</v>
+        <v>95681530500</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>-4.0236686390532572E-2</v>
+        <v>-0.13355408388520973</v>
       </c>
     </row>
     <row r="29" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1029</v>
+        <v>995</v>
       </c>
       <c r="C29" s="3">
         <v>12</v>
       </c>
       <c r="D29" s="2">
-        <v>22450</v>
+        <v>3845</v>
       </c>
       <c r="E29" s="2">
-        <v>21450</v>
+        <v>3775</v>
       </c>
       <c r="F29" s="2">
-        <v>296990286700</v>
+        <v>163206365705</v>
       </c>
       <c r="G29" s="2">
-        <v>283761320700</v>
+        <v>160235118475</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>-4.4543429844097981E-2</v>
+        <v>-1.8205461638491571E-2</v>
       </c>
     </row>
     <row r="30" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1030</v>
+        <v>1142</v>
       </c>
       <c r="C30" s="3">
         <v>12</v>
       </c>
       <c r="D30" s="2">
-        <v>1990</v>
+        <v>49200</v>
       </c>
       <c r="E30" s="2">
-        <v>2060</v>
+        <v>46600</v>
       </c>
       <c r="F30" s="2">
-        <v>198990183330</v>
+        <v>308750418000</v>
       </c>
       <c r="G30" s="2">
-        <v>205989838020</v>
+        <v>292434339000</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>3.5175879396984966E-2</v>
+        <v>-5.2845528455284563E-2</v>
       </c>
     </row>
     <row r="31" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1031</v>
+        <v>1143</v>
       </c>
       <c r="C31" s="3">
         <v>12</v>
       </c>
       <c r="D31" s="2">
-        <v>3350</v>
+        <v>3030</v>
       </c>
       <c r="E31" s="2">
-        <v>3210</v>
+        <v>2890</v>
       </c>
       <c r="F31" s="2">
-        <v>206273539850</v>
+        <v>105734373990</v>
       </c>
       <c r="G31" s="2">
-        <v>197653153110</v>
+        <v>100848957370</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>-4.179104477611939E-2</v>
+        <v>-4.6204620462046209E-2</v>
       </c>
     </row>
     <row r="32" spans="1:213" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="C32" s="3">
         <v>12</v>
       </c>
       <c r="D32" s="2">
-        <v>7960</v>
+        <v>10700</v>
       </c>
       <c r="E32" s="2">
-        <v>8190</v>
+        <v>10300</v>
       </c>
       <c r="F32" s="2">
-        <v>173408090560</v>
+        <v>127660929600</v>
       </c>
       <c r="G32" s="2">
-        <v>178418625840</v>
+        <v>122888558400</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>2.8894472361808976E-2</v>
+        <v>-3.7383177570093462E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>996</v>
+        <v>1024</v>
       </c>
       <c r="C33" s="3">
         <v>12</v>
       </c>
       <c r="D33" s="2">
-        <v>3845</v>
+        <v>19700</v>
       </c>
       <c r="E33" s="2">
-        <v>3745</v>
+        <v>19000</v>
       </c>
       <c r="F33" s="2">
-        <v>163206365705</v>
+        <v>883872354900</v>
       </c>
       <c r="G33" s="2">
-        <v>158961726805</v>
+        <v>852465723000</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>-2.6007802340702213E-2</v>
+        <v>-3.5532994923857864E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1033</v>
+        <v>1144</v>
       </c>
       <c r="C34" s="3">
         <v>12</v>
       </c>
       <c r="D34" s="2">
-        <v>14500</v>
+        <v>4990</v>
       </c>
       <c r="E34" s="2">
-        <v>14900</v>
+        <v>4920</v>
       </c>
       <c r="F34" s="2">
-        <v>174632200000</v>
+        <v>102186247940</v>
       </c>
       <c r="G34" s="2">
-        <v>179449640000</v>
+        <v>100752773520</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>2.7586206896551779E-2</v>
+        <v>-1.4028056112224463E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="C35" s="3">
         <v>12</v>
       </c>
       <c r="D35" s="2">
-        <v>10700</v>
+        <v>49150</v>
       </c>
       <c r="E35" s="2">
-        <v>10200</v>
+        <v>46950</v>
       </c>
       <c r="F35" s="2">
-        <v>127660929600</v>
+        <v>4148706175050</v>
       </c>
       <c r="G35" s="2">
-        <v>121695465600</v>
+        <v>3975284711150</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>-4.6728971962616828E-2</v>
+        <v>-4.4760935910478139E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -7557,7 +7876,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1035</v>
+        <v>1145</v>
       </c>
       <c r="C36" s="3">
         <v>12</v>
@@ -7566,72 +7885,119 @@
         <v>11050</v>
       </c>
       <c r="E36" s="2">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="F36" s="2">
         <v>190060000000</v>
       </c>
       <c r="G36" s="2">
-        <v>189200000000</v>
+        <v>190920000000</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>-4.5248868778280382E-3</v>
+        <v>4.5248868778280382E-3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="C37" s="3">
         <v>12</v>
       </c>
       <c r="D37" s="2">
-        <v>49200</v>
+        <v>7130</v>
       </c>
       <c r="E37" s="2">
-        <v>48600</v>
+        <v>7180</v>
       </c>
       <c r="F37" s="2">
-        <v>308750418000</v>
+        <v>467235338850</v>
       </c>
       <c r="G37" s="2">
-        <v>304985169000</v>
+        <v>470009711100</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2195121951219523E-2</v>
+        <v>7.0126227208975322E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>543</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1037</v>
+        <v>1146</v>
       </c>
       <c r="C38" s="3">
         <v>12</v>
       </c>
       <c r="D38" s="2">
-        <v>10300</v>
+        <v>7220</v>
       </c>
       <c r="E38" s="2">
-        <v>9840</v>
+        <v>7690</v>
       </c>
       <c r="F38" s="2">
-        <v>264015473100</v>
+        <v>195299620980</v>
       </c>
       <c r="G38" s="2">
-        <v>252340470870</v>
+        <v>208013031210</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>-4.4660194174757306E-2</v>
-      </c>
+        <v>6.5096952908587191E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C39" s="3">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7960</v>
+      </c>
+      <c r="E39" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F39" s="2">
+        <v>173408090560</v>
+      </c>
+      <c r="G39" s="2">
+        <v>176240132240</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6331658291457218E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7645,6 +8011,3022 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:HE38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="7" width="14.69921875" customWidth="1"/>
+    <col min="11" max="14" width="14.69921875" customWidth="1"/>
+    <col min="15" max="15" width="9.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1">
+        <f>AVERAGE(H14:H38)</f>
+        <v>-1.1221547246202314E-2</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="G2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF(H14:H38,"&gt;=0")</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
+        <v>983</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF(H14:H38,"&lt;0")</f>
+        <v>15</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
+        <f>MAX(H14:H38)</f>
+        <v>0.13298791018998268</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1">
+        <f>MIN(H14:H38)</f>
+        <v>-0.13355408388520973</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
+        <f>O14/N14-1</f>
+        <v>2.3282089040661091E-2</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>984</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9">
+        <v>20170831</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9">
+        <v>20170831</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9">
+        <v>20170831</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="9">
+        <v>20170831</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C14" s="3">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2316000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2624000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>335262855404000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>379467824956000</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H38" si="0">E14/D14-1</f>
+        <v>0.13298791018998268</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="6">
+        <v>2363.19</v>
+      </c>
+      <c r="O14" s="6">
+        <v>2418.21</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1535629495111100</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1573692545495320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12050</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12950</v>
+      </c>
+      <c r="F15" s="2">
+        <v>262782652450</v>
+      </c>
+      <c r="G15" s="2">
+        <v>282409572550</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4688796680497882E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C16" s="3">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1590</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1540</v>
+      </c>
+      <c r="F16" s="2">
+        <v>144630015660</v>
+      </c>
+      <c r="G16" s="2">
+        <v>157611671140</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.1446540880503138E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1420</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1480</v>
+      </c>
+      <c r="F17" s="2">
+        <v>121734212980</v>
+      </c>
+      <c r="G17" s="2">
+        <v>126877912120</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>4.2253521126760507E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C18" s="3">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>16450</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16400</v>
+      </c>
+      <c r="F18" s="2">
+        <v>170816800000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>170297600000</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.0395136778115228E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C19" s="3">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9060</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7850</v>
+      </c>
+      <c r="F19" s="2">
+        <v>110429893800</v>
+      </c>
+      <c r="G19" s="2">
+        <v>95681530500</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.13355408388520973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C20" s="3">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4965</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5120</v>
+      </c>
+      <c r="F20" s="2">
+        <v>111069264390</v>
+      </c>
+      <c r="G20" s="2">
+        <v>114536683520</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1218529707955689E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="C21" s="3">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2">
+        <v>11900</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11400</v>
+      </c>
+      <c r="F21" s="2">
+        <v>455770000000</v>
+      </c>
+      <c r="G21" s="2">
+        <v>436620000000</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.2016806722689037E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <v>79200</v>
+      </c>
+      <c r="E22" s="2">
+        <v>77400</v>
+      </c>
+      <c r="F22" s="2">
+        <v>136224000000</v>
+      </c>
+      <c r="G22" s="2">
+        <v>133128000000</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2727272727272707E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C23" s="3">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5410</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5110</v>
+      </c>
+      <c r="F23" s="2">
+        <v>231747185380</v>
+      </c>
+      <c r="G23" s="2">
+        <v>218896139980</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.5452865064695045E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>12550</v>
+      </c>
+      <c r="E24" s="2">
+        <v>11950</v>
+      </c>
+      <c r="F24" s="2">
+        <v>333655316550</v>
+      </c>
+      <c r="G24" s="2">
+        <v>317703667950</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.7808764940239001E-2</v>
+      </c>
+      <c r="M24">
+        <v>0.90506832727901754</v>
+      </c>
+      <c r="N24">
+        <v>1.1034746378196552</v>
+      </c>
+      <c r="O24">
+        <v>1.0602743522239158</v>
+      </c>
+      <c r="P24">
+        <v>0.97218047569262944</v>
+      </c>
+      <c r="Q24">
+        <v>0.90996925041587551</v>
+      </c>
+      <c r="R24">
+        <v>1.0065737235712309</v>
+      </c>
+      <c r="S24">
+        <v>0.87996918053236961</v>
+      </c>
+      <c r="T24">
+        <v>1.1211849566377583</v>
+      </c>
+      <c r="U24">
+        <v>1.1972443799854968</v>
+      </c>
+      <c r="V24">
+        <v>1.0773579338085699</v>
+      </c>
+      <c r="W24">
+        <v>1.0783768199509876</v>
+      </c>
+      <c r="X24">
+        <v>1.0961407354926678</v>
+      </c>
+      <c r="Y24">
+        <v>1.0921840510250125</v>
+      </c>
+      <c r="Z24">
+        <v>0.94055249112307104</v>
+      </c>
+      <c r="AA24">
+        <v>0.94546145262008208</v>
+      </c>
+      <c r="AB24">
+        <v>0.93259668508287297</v>
+      </c>
+      <c r="AC24">
+        <v>0.96670346833261522</v>
+      </c>
+      <c r="AD24">
+        <v>1.0256410256410255</v>
+      </c>
+      <c r="AE24">
+        <v>0.87781097229766425</v>
+      </c>
+      <c r="AF24">
+        <v>1.0193372729804153</v>
+      </c>
+      <c r="AG24">
+        <v>1.099981788380987</v>
+      </c>
+      <c r="AH24">
+        <v>0.86582505518763797</v>
+      </c>
+      <c r="AI24">
+        <v>0.94312803760656527</v>
+      </c>
+      <c r="AJ24">
+        <v>0.97224005677018199</v>
+      </c>
+      <c r="AK24">
+        <v>0.93095598074483443</v>
+      </c>
+      <c r="AL24">
+        <v>1.1188165017733807</v>
+      </c>
+      <c r="AM24">
+        <v>1.0568449153249353</v>
+      </c>
+      <c r="AN24">
+        <v>1.0576394809131382</v>
+      </c>
+      <c r="AO24">
+        <v>1.065066499485021</v>
+      </c>
+      <c r="AP24">
+        <v>1.0643990357663415</v>
+      </c>
+      <c r="AQ24">
+        <v>0.91842995773368263</v>
+      </c>
+      <c r="AR24">
+        <v>1.1216309209771764</v>
+      </c>
+      <c r="AS24">
+        <v>1.0176645022751674</v>
+      </c>
+      <c r="AT24">
+        <v>1.0182496420407448</v>
+      </c>
+      <c r="AU24">
+        <v>1.0466134622738092</v>
+      </c>
+      <c r="AV24">
+        <v>1.0411549793753683</v>
+      </c>
+      <c r="AW24">
+        <v>0.99669466391976635</v>
+      </c>
+      <c r="AX24">
+        <v>0.97994321408290752</v>
+      </c>
+      <c r="AY24">
+        <v>0.93162115803625234</v>
+      </c>
+      <c r="AZ24">
+        <v>0.97754528264331197</v>
+      </c>
+      <c r="BA24">
+        <v>0.93579709591621174</v>
+      </c>
+      <c r="BB24">
+        <v>1.0927870100905703</v>
+      </c>
+      <c r="BC24">
+        <v>1.0392249586221487</v>
+      </c>
+      <c r="BD24">
+        <v>0.99970063106970508</v>
+      </c>
+      <c r="BE24">
+        <v>1.0517703991183938</v>
+      </c>
+      <c r="BF24">
+        <v>1.0203402956517778</v>
+      </c>
+      <c r="BG24">
+        <v>1.0410527725689795</v>
+      </c>
+      <c r="BH24">
+        <v>1.084335799292377</v>
+      </c>
+      <c r="BI24">
+        <v>0.95483309602910926</v>
+      </c>
+      <c r="BJ24">
+        <v>0.94368734984674008</v>
+      </c>
+      <c r="BK24">
+        <v>1.0646439152858556</v>
+      </c>
+      <c r="BL24">
+        <v>1.0391152430917017</v>
+      </c>
+      <c r="BM24">
+        <v>1.1022952705919695</v>
+      </c>
+      <c r="BN24">
+        <v>0.97484005075182889</v>
+      </c>
+      <c r="BO24">
+        <v>1.127089621814221</v>
+      </c>
+      <c r="BP24">
+        <v>0.9484852703909058</v>
+      </c>
+      <c r="BQ24">
+        <v>1.1203080881781524</v>
+      </c>
+      <c r="BR24">
+        <v>1.0631474287828337</v>
+      </c>
+      <c r="BS24">
+        <v>1.0148328584788708</v>
+      </c>
+      <c r="BT24">
+        <v>0.97982612174335459</v>
+      </c>
+      <c r="BU24">
+        <v>0.99125832063517527</v>
+      </c>
+      <c r="BV24">
+        <v>1.0442262430126508</v>
+      </c>
+      <c r="BW24">
+        <v>0.928134222704317</v>
+      </c>
+      <c r="BX24">
+        <v>0.98288684829627382</v>
+      </c>
+      <c r="BY24">
+        <v>1.0020615372736748</v>
+      </c>
+      <c r="BZ24">
+        <v>1.0423171163951859</v>
+      </c>
+      <c r="CA24">
+        <v>1.0138016174579003</v>
+      </c>
+      <c r="CB24">
+        <v>0.99499784892920418</v>
+      </c>
+      <c r="CC24">
+        <v>1.049584111978308</v>
+      </c>
+      <c r="CD24">
+        <v>1.0015709986663968</v>
+      </c>
+      <c r="CE24">
+        <v>0.94825230400290006</v>
+      </c>
+      <c r="CF24">
+        <v>1.0419855465619785</v>
+      </c>
+      <c r="CG24">
+        <v>1.0248423102431314</v>
+      </c>
+      <c r="CH24">
+        <v>1.0617465835943685</v>
+      </c>
+      <c r="CI24">
+        <v>1.1028828197945846</v>
+      </c>
+      <c r="CJ24">
+        <v>1.0250983297176217</v>
+      </c>
+      <c r="CK24">
+        <v>1.1087806836430374</v>
+      </c>
+      <c r="CL24">
+        <v>0.96894898281150588</v>
+      </c>
+      <c r="CM24">
+        <v>1.039098033353975</v>
+      </c>
+      <c r="CN24">
+        <v>1.0608123381694134</v>
+      </c>
+      <c r="CO24">
+        <v>0.92306947235876702</v>
+      </c>
+      <c r="CP24">
+        <v>0.99534627492130123</v>
+      </c>
+      <c r="CQ24">
+        <v>0.85638833395708247</v>
+      </c>
+      <c r="CR24">
+        <v>1.0535120762242409</v>
+      </c>
+      <c r="CS24">
+        <v>0.99554223484184579</v>
+      </c>
+      <c r="CT24">
+        <v>1.0712914981895434</v>
+      </c>
+      <c r="CU24">
+        <v>1.0145441995759996</v>
+      </c>
+      <c r="CV24">
+        <v>0.90437468277880373</v>
+      </c>
+      <c r="CW24">
+        <v>0.95208726386931919</v>
+      </c>
+      <c r="CX24">
+        <v>0.92447967291038269</v>
+      </c>
+      <c r="CY24">
+        <v>0.98224169741697409</v>
+      </c>
+      <c r="CZ24">
+        <v>0.76865599491733771</v>
+      </c>
+      <c r="DA24">
+        <v>0.96676729017303653</v>
+      </c>
+      <c r="DB24">
+        <v>1.0449784865296867</v>
+      </c>
+      <c r="DC24">
+        <v>1.0334735475379511</v>
+      </c>
+      <c r="DD24">
+        <v>0.91474128955090317</v>
+      </c>
+      <c r="DE24">
+        <v>1.1347374956492291</v>
+      </c>
+      <c r="DF24">
+        <v>1.1352113143103477</v>
+      </c>
+      <c r="DG24">
+        <v>1.0193740141379917</v>
+      </c>
+      <c r="DH24">
+        <v>0.99583061702569675</v>
+      </c>
+      <c r="DI24">
+        <v>1.1202961001963929</v>
+      </c>
+      <c r="DJ24">
+        <v>1.0221923983330015</v>
+      </c>
+      <c r="DK24">
+        <v>1.0510663693187174</v>
+      </c>
+      <c r="DL24">
+        <v>0.94474461192727444</v>
+      </c>
+      <c r="DM24">
+        <v>0.98412718496352847</v>
+      </c>
+      <c r="DN24">
+        <v>1.0817498071483673</v>
+      </c>
+      <c r="DO24">
+        <v>0.95225729006340742</v>
+      </c>
+      <c r="DP24">
+        <v>0.9951011900675848</v>
+      </c>
+      <c r="DQ24">
+        <v>1.0616275132009683</v>
+      </c>
+      <c r="DR24">
+        <v>1.0287739610715658</v>
+      </c>
+      <c r="DS24">
+        <v>0.94240221410689273</v>
+      </c>
+      <c r="DT24">
+        <v>1.0347539984767706</v>
+      </c>
+      <c r="DU24">
+        <v>1.0359420358124938</v>
+      </c>
+      <c r="DV24">
+        <v>0.99057595789306163</v>
+      </c>
+      <c r="DW24">
+        <v>1.0746291780232391</v>
+      </c>
+      <c r="DX24">
+        <v>1.0054143239303508</v>
+      </c>
+      <c r="DY24">
+        <v>1.011513847951353</v>
+      </c>
+      <c r="DZ24">
+        <v>1.0768495718328495</v>
+      </c>
+      <c r="EA24">
+        <v>1.0091321306679668</v>
+      </c>
+      <c r="EB24">
+        <v>0.93698211844056956</v>
+      </c>
+      <c r="EC24">
+        <v>1.0863198061156087</v>
+      </c>
+      <c r="ED24">
+        <v>1.0406607490387811</v>
+      </c>
+      <c r="EE24">
+        <v>0.9772437008520497</v>
+      </c>
+      <c r="EF24">
+        <v>0.98049914351192791</v>
+      </c>
+      <c r="EG24">
+        <v>1.0154806277937249</v>
+      </c>
+      <c r="EH24">
+        <v>0.88135251569231343</v>
+      </c>
+      <c r="EI24">
+        <v>0.94124811846115397</v>
+      </c>
+      <c r="EJ24">
+        <v>1.0787613369875397</v>
+      </c>
+      <c r="EK24">
+        <v>0.96777420993907903</v>
+      </c>
+      <c r="EL24">
+        <v>0.98821657257606188</v>
+      </c>
+      <c r="EM24">
+        <v>1.0712313911071676</v>
+      </c>
+      <c r="EN24">
+        <v>1.0380715721012992</v>
+      </c>
+      <c r="EO24">
+        <v>0.99201576160571359</v>
+      </c>
+      <c r="EP24">
+        <v>0.98408671128676695</v>
+      </c>
+      <c r="EQ24">
+        <v>0.93011064637056695</v>
+      </c>
+      <c r="ER24">
+        <v>1.0057174784509648</v>
+      </c>
+      <c r="ES24">
+        <v>1.0150916122351012</v>
+      </c>
+      <c r="ET24">
+        <v>1.0122901822007555</v>
+      </c>
+      <c r="EU24">
+        <v>1.047813261106912</v>
+      </c>
+      <c r="EV24">
+        <v>0.95784511649575943</v>
+      </c>
+      <c r="EW24">
+        <v>1.0108992395636121</v>
+      </c>
+      <c r="EX24">
+        <v>1.0331884732784933</v>
+      </c>
+      <c r="EY24">
+        <v>0.98241906812548518</v>
+      </c>
+      <c r="EZ24">
+        <v>1.0329011080868935</v>
+      </c>
+      <c r="FA24">
+        <v>0.98934117612226069</v>
+      </c>
+      <c r="FB24">
+        <v>0.97957992707829356</v>
+      </c>
+      <c r="FC24">
+        <v>1.0188905012856742</v>
+      </c>
+      <c r="FD24">
+        <v>0.93117113515404415</v>
+      </c>
+      <c r="FE24">
+        <v>1.0272148637915119</v>
+      </c>
+      <c r="FF24">
+        <v>1.0064419052992899</v>
+      </c>
+      <c r="FG24">
+        <v>1.0366494320895367</v>
+      </c>
+      <c r="FH24">
+        <v>1.0165902171300376</v>
+      </c>
+      <c r="FI24">
+        <v>1.0072804653980858</v>
+      </c>
+      <c r="FJ24">
+        <v>0.98360286962007371</v>
+      </c>
+      <c r="FK24">
+        <v>0.96510286674555279</v>
+      </c>
+      <c r="FL24">
+        <v>1.0200087576951806</v>
+      </c>
+      <c r="FM24">
+        <v>1.0028383981737281</v>
+      </c>
+      <c r="FN24">
+        <v>0.98800368652454418</v>
+      </c>
+      <c r="FO24">
+        <v>1.0169080278725042</v>
+      </c>
+      <c r="FP24">
+        <v>1.0036341580783574</v>
+      </c>
+      <c r="FQ24">
+        <v>1.0369142097981729</v>
+      </c>
+      <c r="FR24">
+        <v>0.99634895863437567</v>
+      </c>
+      <c r="FS24">
+        <v>0.97657768281009794</v>
+      </c>
+      <c r="FT24">
+        <v>0.97244677217351705</v>
+      </c>
+      <c r="FU24">
+        <v>1.0083230249996182</v>
+      </c>
+      <c r="FV24">
+        <v>0.96708872262442069</v>
+      </c>
+      <c r="FW24">
+        <v>1.0175768301150037</v>
+      </c>
+      <c r="FX24">
+        <v>1.0187455752439387</v>
+      </c>
+      <c r="FY24">
+        <v>1.0278124685265384</v>
+      </c>
+      <c r="FZ24">
+        <v>1.042204181222226</v>
+      </c>
+      <c r="GA24">
+        <v>0.99418476191371641</v>
+      </c>
+      <c r="GB24">
+        <v>0.98080196708908629</v>
+      </c>
+      <c r="GC24">
+        <v>0.97876771767428417</v>
+      </c>
+      <c r="GD24">
+        <v>0.95632363951609722</v>
+      </c>
+      <c r="GE24">
+        <v>1.0109812566636964</v>
+      </c>
+      <c r="GF24">
+        <v>1.0339615143595153</v>
+      </c>
+      <c r="GG24">
+        <v>0.9815222693609662</v>
+      </c>
+      <c r="GH24">
+        <v>0.98460820193075194</v>
+      </c>
+      <c r="GI24">
+        <v>0.97488923219684798</v>
+      </c>
+      <c r="GJ24">
+        <v>1.0024057822453272</v>
+      </c>
+      <c r="GK24">
+        <v>1.0413166654492709</v>
+      </c>
+      <c r="GL24">
+        <v>0.99914823258260899</v>
+      </c>
+      <c r="GM24">
+        <v>0.99460923200361051</v>
+      </c>
+      <c r="GN24">
+        <v>0.99342038923061404</v>
+      </c>
+      <c r="GO24">
+        <v>1.0232649021747406</v>
+      </c>
+      <c r="GP24">
+        <v>1.0091558831260943</v>
+      </c>
+      <c r="GQ24">
+        <v>1.0044135354975057</v>
+      </c>
+      <c r="GR24">
+        <v>0.98265830898939632</v>
+      </c>
+      <c r="GS24">
+        <v>0.98769538738864349</v>
+      </c>
+      <c r="GT24">
+        <v>1.0216689858228971</v>
+      </c>
+      <c r="GU24">
+        <v>1.02028660817386</v>
+      </c>
+      <c r="GV24">
+        <v>1.0116416856503043</v>
+      </c>
+      <c r="GW24">
+        <v>1.032792449943585</v>
+      </c>
+      <c r="GX24">
+        <v>1.0209283270762837</v>
+      </c>
+      <c r="GY24">
+        <v>1.0643590394660476</v>
+      </c>
+      <c r="GZ24">
+        <v>1.0189189649737154</v>
+      </c>
+      <c r="HA24">
+        <v>1.0045656182189908</v>
+      </c>
+      <c r="HB24">
+        <v>0.98355190597283904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6720</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6180</v>
+      </c>
+      <c r="F25" s="2">
+        <v>108031022400</v>
+      </c>
+      <c r="G25" s="2">
+        <v>99349958100</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.0357142857142905E-2</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.91960209024733797</v>
+      </c>
+      <c r="N25">
+        <v>1.07402126795619</v>
+      </c>
+      <c r="O25">
+        <v>1.1596385550142401</v>
+      </c>
+      <c r="P25">
+        <v>1.0530372543849</v>
+      </c>
+      <c r="Q25">
+        <v>0.88139895586869099</v>
+      </c>
+      <c r="R25">
+        <v>1.00009577613439</v>
+      </c>
+      <c r="S25">
+        <v>0.93740677099607606</v>
+      </c>
+      <c r="T25">
+        <v>1.09846344407399</v>
+      </c>
+      <c r="U25">
+        <v>1.2595645086692999</v>
+      </c>
+      <c r="V25">
+        <v>1.0700795156554199</v>
+      </c>
+      <c r="W25">
+        <v>1.0872389775500899</v>
+      </c>
+      <c r="X25">
+        <v>1.12510888029558</v>
+      </c>
+      <c r="Y25">
+        <v>1.12905084579075</v>
+      </c>
+      <c r="Z25">
+        <v>0.92241048739326004</v>
+      </c>
+      <c r="AA25">
+        <v>0.89072986959115297</v>
+      </c>
+      <c r="AB25">
+        <v>0.90813119203758697</v>
+      </c>
+      <c r="AC25">
+        <v>0.98755855609682897</v>
+      </c>
+      <c r="AD25">
+        <v>1.04625791876153</v>
+      </c>
+      <c r="AE25">
+        <v>0.87456954102476803</v>
+      </c>
+      <c r="AF25">
+        <v>1.04267810083964</v>
+      </c>
+      <c r="AG25">
+        <v>1.10539154597102</v>
+      </c>
+      <c r="AH25">
+        <v>0.85074111589063295</v>
+      </c>
+      <c r="AI25">
+        <v>0.931950754130763</v>
+      </c>
+      <c r="AJ25">
+        <v>1.01995616242805</v>
+      </c>
+      <c r="AK25">
+        <v>0.93320395055759298</v>
+      </c>
+      <c r="AL25">
+        <v>1.1178823616150499</v>
+      </c>
+      <c r="AM25">
+        <v>1.1150982782710701</v>
+      </c>
+      <c r="AN25">
+        <v>1.0314795420757199</v>
+      </c>
+      <c r="AO25">
+        <v>1.0570919430200001</v>
+      </c>
+      <c r="AP25">
+        <v>1.0864568631226099</v>
+      </c>
+      <c r="AQ25">
+        <v>0.93070862854654202</v>
+      </c>
+      <c r="AR25">
+        <v>1.11210749970864</v>
+      </c>
+      <c r="AS25">
+        <v>1.0532432637044999</v>
+      </c>
+      <c r="AT25">
+        <v>1.02467553329709</v>
+      </c>
+      <c r="AU25">
+        <v>1.0318457579292899</v>
+      </c>
+      <c r="AV25">
+        <v>1.02957622495111</v>
+      </c>
+      <c r="AW25">
+        <v>1.0360908911209801</v>
+      </c>
+      <c r="AX25">
+        <v>1.03066061253443</v>
+      </c>
+      <c r="AY25">
+        <v>0.885323110130663</v>
+      </c>
+      <c r="AZ25">
+        <v>0.98117460063097295</v>
+      </c>
+      <c r="BA25">
+        <v>0.94023470608513404</v>
+      </c>
+      <c r="BB25">
+        <v>1.1028326655191401</v>
+      </c>
+      <c r="BC25">
+        <v>1.0748346815741801</v>
+      </c>
+      <c r="BD25">
+        <v>1.1206535446405499</v>
+      </c>
+      <c r="BE25">
+        <v>1.0230881823560101</v>
+      </c>
+      <c r="BF25">
+        <v>1.0052231780169401</v>
+      </c>
+      <c r="BG25">
+        <v>1.09042593790596</v>
+      </c>
+      <c r="BH25">
+        <v>1.16269212078613</v>
+      </c>
+      <c r="BI25">
+        <v>0.98263803648392201</v>
+      </c>
+      <c r="BJ25">
+        <v>0.95104826064022896</v>
+      </c>
+      <c r="BK25">
+        <v>1.0466318929185201</v>
+      </c>
+      <c r="BL25">
+        <v>1.1251383666870101</v>
+      </c>
+      <c r="BM25">
+        <v>1.0924979804925501</v>
+      </c>
+      <c r="BN25">
+        <v>0.98580019169028599</v>
+      </c>
+      <c r="BO25">
+        <v>1.13800206626899</v>
+      </c>
+      <c r="BP25">
+        <v>1.05510528441381</v>
+      </c>
+      <c r="BQ25">
+        <v>1.11603729183906</v>
+      </c>
+      <c r="BR25">
+        <v>1.0059418222671299</v>
+      </c>
+      <c r="BS25">
+        <v>0.97163547065567002</v>
+      </c>
+      <c r="BT25">
+        <v>0.965062827370328</v>
+      </c>
+      <c r="BU25">
+        <v>0.98216936773644703</v>
+      </c>
+      <c r="BV25">
+        <v>1.0601683824133701</v>
+      </c>
+      <c r="BW25">
+        <v>0.92495595322221102</v>
+      </c>
+      <c r="BX25">
+        <v>0.94604553717534901</v>
+      </c>
+      <c r="BY25">
+        <v>0.98652934001644199</v>
+      </c>
+      <c r="BZ25">
+        <v>1.03254622112503</v>
+      </c>
+      <c r="CA25">
+        <v>1.0166986701146099</v>
+      </c>
+      <c r="CB25">
+        <v>0.99407061138922803</v>
+      </c>
+      <c r="CC25">
+        <v>1.1101666436483899</v>
+      </c>
+      <c r="CD25">
+        <v>0.95486732520510498</v>
+      </c>
+      <c r="CE25">
+        <v>0.96218071795180304</v>
+      </c>
+      <c r="CF25">
+        <v>1.02668699699979</v>
+      </c>
+      <c r="CG25">
+        <v>1.05517746623967</v>
+      </c>
+      <c r="CH25">
+        <v>1.11404141012201</v>
+      </c>
+      <c r="CI25">
+        <v>1.1775810804284399</v>
+      </c>
+      <c r="CJ25">
+        <v>1.0106594753043201</v>
+      </c>
+      <c r="CK25">
+        <v>1.1245005246436599</v>
+      </c>
+      <c r="CL25">
+        <v>0.96695997950853996</v>
+      </c>
+      <c r="CM25">
+        <v>0.96483883004132298</v>
+      </c>
+      <c r="CN25">
+        <v>1.00760860441958</v>
+      </c>
+      <c r="CO25">
+        <v>0.93382005046498096</v>
+      </c>
+      <c r="CP25">
+        <v>1.0236323084024199</v>
+      </c>
+      <c r="CQ25">
+        <v>0.88295123716593304</v>
+      </c>
+      <c r="CR25">
+        <v>1.02464414094972</v>
+      </c>
+      <c r="CS25">
+        <v>0.97468531292606597</v>
+      </c>
+      <c r="CT25">
+        <v>1.0487778138322399</v>
+      </c>
+      <c r="CU25">
+        <v>1.0379187634298399</v>
+      </c>
+      <c r="CV25">
+        <v>0.93366133342076296</v>
+      </c>
+      <c r="CW25">
+        <v>0.92415833754829102</v>
+      </c>
+      <c r="CX25">
+        <v>0.91966615170744004</v>
+      </c>
+      <c r="CY25">
+        <v>0.98895172714365898</v>
+      </c>
+      <c r="CZ25">
+        <v>0.741382798763075</v>
+      </c>
+      <c r="DA25">
+        <v>1.0005239832825601</v>
+      </c>
+      <c r="DB25">
+        <v>1.0403773801021701</v>
+      </c>
+      <c r="DC25">
+        <v>1.0457052343586599</v>
+      </c>
+      <c r="DD25">
+        <v>0.939462882549158</v>
+      </c>
+      <c r="DE25">
+        <v>1.2066400841692799</v>
+      </c>
+      <c r="DF25">
+        <v>1.1519714645235399</v>
+      </c>
+      <c r="DG25">
+        <v>0.99409693643007402</v>
+      </c>
+      <c r="DH25">
+        <v>0.98112395277085696</v>
+      </c>
+      <c r="DI25">
+        <v>1.06512431110747</v>
+      </c>
+      <c r="DJ25">
+        <v>1.08886562782441</v>
+      </c>
+      <c r="DK25">
+        <v>1.0048664130665399</v>
+      </c>
+      <c r="DL25">
+        <v>0.95715561596534204</v>
+      </c>
+      <c r="DM25">
+        <v>1.0190478175515101</v>
+      </c>
+      <c r="DN25">
+        <v>1.0963872375525101</v>
+      </c>
+      <c r="DO25">
+        <v>0.94016788545771002</v>
+      </c>
+      <c r="DP25">
+        <v>1.0025073937212701</v>
+      </c>
+      <c r="DQ25">
+        <v>1.0728663286392299</v>
+      </c>
+      <c r="DR25">
+        <v>1.06049526860909</v>
+      </c>
+      <c r="DS25">
+        <v>0.94446049759598805</v>
+      </c>
+      <c r="DT25">
+        <v>1.08758971980585</v>
+      </c>
+      <c r="DU25">
+        <v>0.98066422566100997</v>
+      </c>
+      <c r="DV25">
+        <v>0.96775753579308199</v>
+      </c>
+      <c r="DW25">
+        <v>1.06404924353585</v>
+      </c>
+      <c r="DX25">
+        <v>1.0578464142270101</v>
+      </c>
+      <c r="DY25">
+        <v>1.0124778754360799</v>
+      </c>
+      <c r="DZ25">
+        <v>1.03415070551708</v>
+      </c>
+      <c r="EA25">
+        <v>1.01394197874405</v>
+      </c>
+      <c r="EB25">
+        <v>0.92681601065527497</v>
+      </c>
+      <c r="EC25">
+        <v>1.0753996718805101</v>
+      </c>
+      <c r="ED25">
+        <v>1.0791758387513799</v>
+      </c>
+      <c r="EE25">
+        <v>0.94767941490003405</v>
+      </c>
+      <c r="EF25">
+        <v>1.01121092909665</v>
+      </c>
+      <c r="EG25">
+        <v>1.14028089943689</v>
+      </c>
+      <c r="EH25">
+        <v>0.89856544957200202</v>
+      </c>
+      <c r="EI25">
+        <v>0.94303857028391203</v>
+      </c>
+      <c r="EJ25">
+        <v>1.07737396983501</v>
+      </c>
+      <c r="EK25">
+        <v>1.0027284993861501</v>
+      </c>
+      <c r="EL25">
+        <v>1.0174697965291399</v>
+      </c>
+      <c r="EM25">
+        <v>1.0478936778368499</v>
+      </c>
+      <c r="EN25">
+        <v>1.06340683937698</v>
+      </c>
+      <c r="EO25">
+        <v>0.98039344543704099</v>
+      </c>
+      <c r="EP25">
+        <v>0.98570407579335795</v>
+      </c>
+      <c r="EQ25">
+        <v>0.94710408219023801</v>
+      </c>
+      <c r="ER25">
+        <v>1.0265121033668601</v>
+      </c>
+      <c r="ES25">
+        <v>1.0108403491756299</v>
+      </c>
+      <c r="ET25">
+        <v>1.0433872539598401</v>
+      </c>
+      <c r="EU25">
+        <v>1.0710436888871999</v>
+      </c>
+      <c r="EV25">
+        <v>0.97259489442811597</v>
+      </c>
+      <c r="EW25">
+        <v>1.04857548123536</v>
+      </c>
+      <c r="EX25">
+        <v>1.02146708198008</v>
+      </c>
+      <c r="EY25">
+        <v>1.00275699374234</v>
+      </c>
+      <c r="EZ25">
+        <v>1.0455818789403599</v>
+      </c>
+      <c r="FA25">
+        <v>1.04665865907001</v>
+      </c>
+      <c r="FB25">
+        <v>1.0571431300949801</v>
+      </c>
+      <c r="FC25">
+        <v>1.02435863282229</v>
+      </c>
+      <c r="FD25">
+        <v>0.891989044320456</v>
+      </c>
+      <c r="FE25">
+        <v>0.98675425542101203</v>
+      </c>
+      <c r="FF25">
+        <v>0.997095246135556</v>
+      </c>
+      <c r="FG25">
+        <v>1.0241013094271101</v>
+      </c>
+      <c r="FH25">
+        <v>1.0295335230020399</v>
+      </c>
+      <c r="FI25">
+        <v>1.00056433551005</v>
+      </c>
+      <c r="FJ25">
+        <v>0.95452448994068795</v>
+      </c>
+      <c r="FK25">
+        <v>0.99147391651566297</v>
+      </c>
+      <c r="FL25">
+        <v>1.03684239519736</v>
+      </c>
+      <c r="FM25">
+        <v>1.05463567799825</v>
+      </c>
+      <c r="FN25">
+        <v>1.0213212711536399</v>
+      </c>
+      <c r="FO25">
+        <v>1.0440275580045499</v>
+      </c>
+      <c r="FP25">
+        <v>0.97668717595365195</v>
+      </c>
+      <c r="FQ25">
+        <v>1.03254386741558</v>
+      </c>
+      <c r="FR25">
+        <v>1.0437766032042499</v>
+      </c>
+      <c r="FS25">
+        <v>1.0166650092054801</v>
+      </c>
+      <c r="FT25">
+        <v>0.98475266042166998</v>
+      </c>
+      <c r="FU25">
+        <v>1.0042401294386101</v>
+      </c>
+      <c r="FV25">
+        <v>1.00183348687959</v>
+      </c>
+      <c r="FW25">
+        <v>1.06361331673738</v>
+      </c>
+      <c r="FX25">
+        <v>1.0455325953971499</v>
+      </c>
+      <c r="FY25">
+        <v>1.05154694920642</v>
+      </c>
+      <c r="FZ25">
+        <v>1.1047782781787401</v>
+      </c>
+      <c r="GA25">
+        <v>1.05266849582433</v>
+      </c>
+      <c r="GB25">
+        <v>0.98495828970326604</v>
+      </c>
+      <c r="GC25">
+        <v>0.99122880200861097</v>
+      </c>
+      <c r="GD25">
+        <v>0.93038811874498195</v>
+      </c>
+      <c r="GE25">
+        <v>1.0298837162318</v>
+      </c>
+      <c r="GF25">
+        <v>1.0208242661260101</v>
+      </c>
+      <c r="GG25">
+        <v>0.97714904937207503</v>
+      </c>
+      <c r="GH25">
+        <v>1.0098375358755101</v>
+      </c>
+      <c r="GI25">
+        <v>0.99756608791744406</v>
+      </c>
+      <c r="GJ25">
+        <v>0.99777203843949602</v>
+      </c>
+      <c r="GK25">
+        <v>1.0782094484379201</v>
+      </c>
+      <c r="GL25">
+        <v>0.99763797795771103</v>
+      </c>
+      <c r="GM25">
+        <v>1.01344666931578</v>
+      </c>
+      <c r="GN25">
+        <v>1.0016639337943001</v>
+      </c>
+      <c r="GO25">
+        <v>1.0498358215418599</v>
+      </c>
+      <c r="GP25">
+        <v>0.98615256550764996</v>
+      </c>
+      <c r="GQ25">
+        <v>0.99103452109796797</v>
+      </c>
+      <c r="GR25">
+        <v>0.94983098575111702</v>
+      </c>
+      <c r="GS25">
+        <v>1.0303434404368901</v>
+      </c>
+      <c r="GT25">
+        <v>1.07097561770865</v>
+      </c>
+      <c r="GU25">
+        <v>1.04107337531787</v>
+      </c>
+      <c r="GV25">
+        <v>0.975797249576425</v>
+      </c>
+      <c r="GW25">
+        <v>1.0161745403632001</v>
+      </c>
+      <c r="GX25">
+        <v>1.0485590478837701</v>
+      </c>
+      <c r="GY25">
+        <v>1.0668278364316599</v>
+      </c>
+      <c r="GZ25">
+        <v>1.0048019705095601</v>
+      </c>
+      <c r="HA25">
+        <v>0.99279877022854102</v>
+      </c>
+      <c r="HB25">
+        <v>0.99815151897134102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6140</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6240</v>
+      </c>
+      <c r="F26" s="2">
+        <v>122922800000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>124924800000</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6286644951140072E-2</v>
+      </c>
+      <c r="M26">
+        <f>M25-M24</f>
+        <v>1.4533762968320429E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:BY26" si="1">N25-N24</f>
+        <v>-2.945336986346514E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>9.9364202790324319E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>8.0856778692270592E-2</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>-2.8570294547184516E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>-6.4779474368408252E-3</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="1"/>
+        <v>5.7437590463706445E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>-2.2721512563768309E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>6.23201286838031E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="1"/>
+        <v>-7.2784181531500014E-3</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>8.8621575991023605E-3</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>2.896814480291221E-2</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="1"/>
+        <v>3.6866794765737509E-2</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>-1.8142003729811007E-2</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>-5.4731583028929109E-2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>-2.4465493045286002E-2</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="1"/>
+        <v>2.0855087764213742E-2</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="1"/>
+        <v>2.0616893120504409E-2</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="1"/>
+        <v>-3.2414312728962225E-3</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="1"/>
+        <v>2.3340827859224644E-2</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="1"/>
+        <v>5.4097575900329264E-3</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="1"/>
+        <v>-1.5083939297005022E-2</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="1"/>
+        <v>-1.1177283475802269E-2</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="1"/>
+        <v>4.7716105657867991E-2</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="1"/>
+        <v>2.2479698127585435E-3</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="1"/>
+        <v>-9.3414015833070962E-4</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="1"/>
+        <v>5.8253362946134812E-2</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="1"/>
+        <v>-2.6159938837418295E-2</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="1"/>
+        <v>-7.9745564650208767E-3</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="1"/>
+        <v>2.2057827356268378E-2</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="1"/>
+        <v>1.2278670812859382E-2</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="1"/>
+        <v>-9.5234212685364472E-3</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="1"/>
+        <v>3.5578761429332584E-2</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="1"/>
+        <v>6.4258912563452952E-3</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="1"/>
+        <v>-1.476770434451935E-2</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="1"/>
+        <v>-1.1578754424258264E-2</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="1"/>
+        <v>3.9396227201213718E-2</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="1"/>
+        <v>5.0717398451522455E-2</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="1"/>
+        <v>-4.6298047905589335E-2</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="1"/>
+        <v>3.6293179876609738E-3</v>
+      </c>
+      <c r="BA26">
+        <f t="shared" si="1"/>
+        <v>4.4376101689223013E-3</v>
+      </c>
+      <c r="BB26">
+        <f t="shared" si="1"/>
+        <v>1.0045655428569722E-2</v>
+      </c>
+      <c r="BC26">
+        <f t="shared" si="1"/>
+        <v>3.5609722952031353E-2</v>
+      </c>
+      <c r="BD26">
+        <f t="shared" si="1"/>
+        <v>0.12095291357084481</v>
+      </c>
+      <c r="BE26">
+        <f t="shared" si="1"/>
+        <v>-2.8682216762383694E-2</v>
+      </c>
+      <c r="BF26">
+        <f t="shared" si="1"/>
+        <v>-1.5117117634837696E-2</v>
+      </c>
+      <c r="BG26">
+        <f t="shared" si="1"/>
+        <v>4.937316533698044E-2</v>
+      </c>
+      <c r="BH26">
+        <f t="shared" si="1"/>
+        <v>7.8356321493753045E-2</v>
+      </c>
+      <c r="BI26">
+        <f t="shared" si="1"/>
+        <v>2.7804940454812743E-2</v>
+      </c>
+      <c r="BJ26">
+        <f t="shared" si="1"/>
+        <v>7.360910793488884E-3</v>
+      </c>
+      <c r="BK26">
+        <f t="shared" si="1"/>
+        <v>-1.8012022367335456E-2</v>
+      </c>
+      <c r="BL26">
+        <f t="shared" si="1"/>
+        <v>8.6023123595308393E-2</v>
+      </c>
+      <c r="BM26">
+        <f t="shared" si="1"/>
+        <v>-9.7972900994194312E-3</v>
+      </c>
+      <c r="BN26">
+        <f t="shared" si="1"/>
+        <v>1.0960140938457097E-2</v>
+      </c>
+      <c r="BO26">
+        <f t="shared" si="1"/>
+        <v>1.0912444454769021E-2</v>
+      </c>
+      <c r="BP26">
+        <f t="shared" si="1"/>
+        <v>0.10662001402290422</v>
+      </c>
+      <c r="BQ26">
+        <f t="shared" si="1"/>
+        <v>-4.2707963390924419E-3</v>
+      </c>
+      <c r="BR26">
+        <f t="shared" si="1"/>
+        <v>-5.7205606515703833E-2</v>
+      </c>
+      <c r="BS26">
+        <f t="shared" si="1"/>
+        <v>-4.3197387823200817E-2</v>
+      </c>
+      <c r="BT26">
+        <f t="shared" si="1"/>
+        <v>-1.4763294373026592E-2</v>
+      </c>
+      <c r="BU26">
+        <f t="shared" si="1"/>
+        <v>-9.088952898728242E-3</v>
+      </c>
+      <c r="BV26">
+        <f t="shared" si="1"/>
+        <v>1.5942139400719313E-2</v>
+      </c>
+      <c r="BW26">
+        <f t="shared" si="1"/>
+        <v>-3.1782694821059776E-3</v>
+      </c>
+      <c r="BX26">
+        <f t="shared" si="1"/>
+        <v>-3.6841311120924813E-2</v>
+      </c>
+      <c r="BY26">
+        <f t="shared" si="1"/>
+        <v>-1.553219725723276E-2</v>
+      </c>
+      <c r="BZ26">
+        <f t="shared" ref="BZ26:EK26" si="2">BZ25-BZ24</f>
+        <v>-9.7708952701558438E-3</v>
+      </c>
+      <c r="CA26">
+        <f t="shared" si="2"/>
+        <v>2.8970526567095867E-3</v>
+      </c>
+      <c r="CB26">
+        <f t="shared" si="2"/>
+        <v>-9.2723753997614455E-4</v>
+      </c>
+      <c r="CC26">
+        <f t="shared" si="2"/>
+        <v>6.0582531670081874E-2</v>
+      </c>
+      <c r="CD26">
+        <f t="shared" si="2"/>
+        <v>-4.6703673461291784E-2</v>
+      </c>
+      <c r="CE26">
+        <f t="shared" si="2"/>
+        <v>1.3928413948902985E-2</v>
+      </c>
+      <c r="CF26">
+        <f t="shared" si="2"/>
+        <v>-1.5298549562188457E-2</v>
+      </c>
+      <c r="CG26">
+        <f t="shared" si="2"/>
+        <v>3.0335155996538576E-2</v>
+      </c>
+      <c r="CH26">
+        <f t="shared" si="2"/>
+        <v>5.2294826527641503E-2</v>
+      </c>
+      <c r="CI26">
+        <f t="shared" si="2"/>
+        <v>7.4698260633855318E-2</v>
+      </c>
+      <c r="CJ26">
+        <f t="shared" si="2"/>
+        <v>-1.4438854413301616E-2</v>
+      </c>
+      <c r="CK26">
+        <f t="shared" si="2"/>
+        <v>1.5719841000622514E-2</v>
+      </c>
+      <c r="CL26">
+        <f t="shared" si="2"/>
+        <v>-1.9890033029659193E-3</v>
+      </c>
+      <c r="CM26">
+        <f t="shared" si="2"/>
+        <v>-7.4259203312652011E-2</v>
+      </c>
+      <c r="CN26">
+        <f t="shared" si="2"/>
+        <v>-5.3203733749833448E-2</v>
+      </c>
+      <c r="CO26">
+        <f t="shared" si="2"/>
+        <v>1.0750578106213937E-2</v>
+      </c>
+      <c r="CP26">
+        <f t="shared" si="2"/>
+        <v>2.8286033481118689E-2</v>
+      </c>
+      <c r="CQ26">
+        <f t="shared" si="2"/>
+        <v>2.6562903208850575E-2</v>
+      </c>
+      <c r="CR26">
+        <f t="shared" si="2"/>
+        <v>-2.8867935274520917E-2</v>
+      </c>
+      <c r="CS26">
+        <f t="shared" si="2"/>
+        <v>-2.0856921915779814E-2</v>
+      </c>
+      <c r="CT26">
+        <f t="shared" si="2"/>
+        <v>-2.2513684357303498E-2</v>
+      </c>
+      <c r="CU26">
+        <f t="shared" si="2"/>
+        <v>2.3374563853840291E-2</v>
+      </c>
+      <c r="CV26">
+        <f t="shared" si="2"/>
+        <v>2.9286650641959233E-2</v>
+      </c>
+      <c r="CW26">
+        <f t="shared" si="2"/>
+        <v>-2.7928926321028169E-2</v>
+      </c>
+      <c r="CX26">
+        <f t="shared" si="2"/>
+        <v>-4.81352120294265E-3</v>
+      </c>
+      <c r="CY26">
+        <f t="shared" si="2"/>
+        <v>6.7100297266848852E-3</v>
+      </c>
+      <c r="CZ26">
+        <f t="shared" si="2"/>
+        <v>-2.7273196154262713E-2</v>
+      </c>
+      <c r="DA26">
+        <f t="shared" si="2"/>
+        <v>3.3756693109523561E-2</v>
+      </c>
+      <c r="DB26">
+        <f t="shared" si="2"/>
+        <v>-4.6011064275166547E-3</v>
+      </c>
+      <c r="DC26">
+        <f t="shared" si="2"/>
+        <v>1.2231686820708854E-2</v>
+      </c>
+      <c r="DD26">
+        <f t="shared" si="2"/>
+        <v>2.4721592998254827E-2</v>
+      </c>
+      <c r="DE26">
+        <f t="shared" si="2"/>
+        <v>7.1902588520050825E-2</v>
+      </c>
+      <c r="DF26">
+        <f t="shared" si="2"/>
+        <v>1.6760150213192215E-2</v>
+      </c>
+      <c r="DG26">
+        <f t="shared" si="2"/>
+        <v>-2.527707770791765E-2</v>
+      </c>
+      <c r="DH26">
+        <f t="shared" si="2"/>
+        <v>-1.4706664254839796E-2</v>
+      </c>
+      <c r="DI26">
+        <f t="shared" si="2"/>
+        <v>-5.5171789088922951E-2</v>
+      </c>
+      <c r="DJ26">
+        <f t="shared" si="2"/>
+        <v>6.6673229491408526E-2</v>
+      </c>
+      <c r="DK26">
+        <f t="shared" si="2"/>
+        <v>-4.6199956252177543E-2</v>
+      </c>
+      <c r="DL26">
+        <f t="shared" si="2"/>
+        <v>1.2411004038067608E-2</v>
+      </c>
+      <c r="DM26">
+        <f t="shared" si="2"/>
+        <v>3.4920632587981615E-2</v>
+      </c>
+      <c r="DN26">
+        <f t="shared" si="2"/>
+        <v>1.4637430404142782E-2</v>
+      </c>
+      <c r="DO26">
+        <f t="shared" si="2"/>
+        <v>-1.2089404605697407E-2</v>
+      </c>
+      <c r="DP26">
+        <f t="shared" si="2"/>
+        <v>7.4062036536852727E-3</v>
+      </c>
+      <c r="DQ26">
+        <f t="shared" si="2"/>
+        <v>1.1238815438261662E-2</v>
+      </c>
+      <c r="DR26">
+        <f t="shared" si="2"/>
+        <v>3.1721307537524224E-2</v>
+      </c>
+      <c r="DS26">
+        <f t="shared" si="2"/>
+        <v>2.0582834890953139E-3</v>
+      </c>
+      <c r="DT26">
+        <f t="shared" si="2"/>
+        <v>5.2835721329079322E-2</v>
+      </c>
+      <c r="DU26">
+        <f t="shared" si="2"/>
+        <v>-5.5277810151483808E-2</v>
+      </c>
+      <c r="DV26">
+        <f t="shared" si="2"/>
+        <v>-2.2818422099979641E-2</v>
+      </c>
+      <c r="DW26">
+        <f t="shared" si="2"/>
+        <v>-1.0579934487389142E-2</v>
+      </c>
+      <c r="DX26">
+        <f t="shared" si="2"/>
+        <v>5.2432090296659295E-2</v>
+      </c>
+      <c r="DY26">
+        <f t="shared" si="2"/>
+        <v>9.6402748472690369E-4</v>
+      </c>
+      <c r="DZ26">
+        <f t="shared" si="2"/>
+        <v>-4.2698866315769468E-2</v>
+      </c>
+      <c r="EA26">
+        <f t="shared" si="2"/>
+        <v>4.8098480760832008E-3</v>
+      </c>
+      <c r="EB26">
+        <f t="shared" si="2"/>
+        <v>-1.0166107785294587E-2</v>
+      </c>
+      <c r="EC26">
+        <f t="shared" si="2"/>
+        <v>-1.0920134235098633E-2</v>
+      </c>
+      <c r="ED26">
+        <f t="shared" si="2"/>
+        <v>3.851508971259876E-2</v>
+      </c>
+      <c r="EE26">
+        <f t="shared" si="2"/>
+        <v>-2.9564285952015656E-2</v>
+      </c>
+      <c r="EF26">
+        <f t="shared" si="2"/>
+        <v>3.0711785584722096E-2</v>
+      </c>
+      <c r="EG26">
+        <f t="shared" si="2"/>
+        <v>0.12480027164316509</v>
+      </c>
+      <c r="EH26">
+        <f t="shared" si="2"/>
+        <v>1.7212933879688586E-2</v>
+      </c>
+      <c r="EI26">
+        <f t="shared" si="2"/>
+        <v>1.7904518227580546E-3</v>
+      </c>
+      <c r="EJ26">
+        <f t="shared" si="2"/>
+        <v>-1.3873671525297393E-3</v>
+      </c>
+      <c r="EK26">
+        <f t="shared" si="2"/>
+        <v>3.4954289447071019E-2</v>
+      </c>
+      <c r="EL26">
+        <f t="shared" ref="EL26:GW26" si="3">EL25-EL24</f>
+        <v>2.9253223953078056E-2</v>
+      </c>
+      <c r="EM26">
+        <f t="shared" si="3"/>
+        <v>-2.3337713270317639E-2</v>
+      </c>
+      <c r="EN26">
+        <f t="shared" si="3"/>
+        <v>2.5335267275680806E-2</v>
+      </c>
+      <c r="EO26">
+        <f t="shared" si="3"/>
+        <v>-1.1622316168672597E-2</v>
+      </c>
+      <c r="EP26">
+        <f t="shared" si="3"/>
+        <v>1.6173645065910014E-3</v>
+      </c>
+      <c r="EQ26">
+        <f t="shared" si="3"/>
+        <v>1.6993435819671054E-2</v>
+      </c>
+      <c r="ER26">
+        <f t="shared" si="3"/>
+        <v>2.0794624915895232E-2</v>
+      </c>
+      <c r="ES26">
+        <f t="shared" si="3"/>
+        <v>-4.2512630594713219E-3</v>
+      </c>
+      <c r="ET26">
+        <f t="shared" si="3"/>
+        <v>3.1097071759084605E-2</v>
+      </c>
+      <c r="EU26">
+        <f t="shared" si="3"/>
+        <v>2.3230427780287943E-2</v>
+      </c>
+      <c r="EV26">
+        <f t="shared" si="3"/>
+        <v>1.4749777932356545E-2</v>
+      </c>
+      <c r="EW26">
+        <f t="shared" si="3"/>
+        <v>3.767624167174799E-2</v>
+      </c>
+      <c r="EX26">
+        <f t="shared" si="3"/>
+        <v>-1.172139129841332E-2</v>
+      </c>
+      <c r="EY26">
+        <f t="shared" si="3"/>
+        <v>2.0337925616854768E-2</v>
+      </c>
+      <c r="EZ26">
+        <f t="shared" si="3"/>
+        <v>1.2680770853466417E-2</v>
+      </c>
+      <c r="FA26">
+        <f t="shared" si="3"/>
+        <v>5.7317482947749299E-2</v>
+      </c>
+      <c r="FB26">
+        <f t="shared" si="3"/>
+        <v>7.7563203016686511E-2</v>
+      </c>
+      <c r="FC26">
+        <f t="shared" si="3"/>
+        <v>5.4681315366158501E-3</v>
+      </c>
+      <c r="FD26">
+        <f t="shared" si="3"/>
+        <v>-3.9182090833588146E-2</v>
+      </c>
+      <c r="FE26">
+        <f t="shared" si="3"/>
+        <v>-4.0460608370499918E-2</v>
+      </c>
+      <c r="FF26">
+        <f t="shared" si="3"/>
+        <v>-9.3466591637338947E-3</v>
+      </c>
+      <c r="FG26">
+        <f t="shared" si="3"/>
+        <v>-1.2548122662426664E-2</v>
+      </c>
+      <c r="FH26">
+        <f t="shared" si="3"/>
+        <v>1.294330587200232E-2</v>
+      </c>
+      <c r="FI26">
+        <f t="shared" si="3"/>
+        <v>-6.7161298880358267E-3</v>
+      </c>
+      <c r="FJ26">
+        <f t="shared" si="3"/>
+        <v>-2.9078379679385757E-2</v>
+      </c>
+      <c r="FK26">
+        <f t="shared" si="3"/>
+        <v>2.6371049770110178E-2</v>
+      </c>
+      <c r="FL26">
+        <f t="shared" si="3"/>
+        <v>1.6833637502179366E-2</v>
+      </c>
+      <c r="FM26">
+        <f t="shared" si="3"/>
+        <v>5.1797279824521869E-2</v>
+      </c>
+      <c r="FN26">
+        <f t="shared" si="3"/>
+        <v>3.3317584629095731E-2</v>
+      </c>
+      <c r="FO26">
+        <f t="shared" si="3"/>
+        <v>2.7119530132045711E-2</v>
+      </c>
+      <c r="FP26">
+        <f t="shared" si="3"/>
+        <v>-2.6946982124705476E-2</v>
+      </c>
+      <c r="FQ26">
+        <f t="shared" si="3"/>
+        <v>-4.3703423825929288E-3</v>
+      </c>
+      <c r="FR26">
+        <f t="shared" si="3"/>
+        <v>4.742764456987425E-2</v>
+      </c>
+      <c r="FS26">
+        <f t="shared" si="3"/>
+        <v>4.008732639538215E-2</v>
+      </c>
+      <c r="FT26">
+        <f t="shared" si="3"/>
+        <v>1.230588824815293E-2</v>
+      </c>
+      <c r="FU26">
+        <f t="shared" si="3"/>
+        <v>-4.0828955610081596E-3</v>
+      </c>
+      <c r="FV26">
+        <f t="shared" si="3"/>
+        <v>3.4744764255169258E-2</v>
+      </c>
+      <c r="FW26">
+        <f t="shared" si="3"/>
+        <v>4.603648662237636E-2</v>
+      </c>
+      <c r="FX26">
+        <f t="shared" si="3"/>
+        <v>2.6787020153211216E-2</v>
+      </c>
+      <c r="FY26">
+        <f t="shared" si="3"/>
+        <v>2.3734480679881598E-2</v>
+      </c>
+      <c r="FZ26">
+        <f t="shared" si="3"/>
+        <v>6.2574096956514058E-2</v>
+      </c>
+      <c r="GA26">
+        <f t="shared" si="3"/>
+        <v>5.8483733910613567E-2</v>
+      </c>
+      <c r="GB26">
+        <f t="shared" si="3"/>
+        <v>4.1563226141797527E-3</v>
+      </c>
+      <c r="GC26">
+        <f t="shared" si="3"/>
+        <v>1.24610843343268E-2</v>
+      </c>
+      <c r="GD26">
+        <f t="shared" si="3"/>
+        <v>-2.5935520771115272E-2</v>
+      </c>
+      <c r="GE26">
+        <f t="shared" si="3"/>
+        <v>1.8902459568103547E-2</v>
+      </c>
+      <c r="GF26">
+        <f t="shared" si="3"/>
+        <v>-1.3137248233505261E-2</v>
+      </c>
+      <c r="GG26">
+        <f t="shared" si="3"/>
+        <v>-4.3732199888911749E-3</v>
+      </c>
+      <c r="GH26">
+        <f t="shared" si="3"/>
+        <v>2.5229333944758126E-2</v>
+      </c>
+      <c r="GI26">
+        <f t="shared" si="3"/>
+        <v>2.2676855720596079E-2</v>
+      </c>
+      <c r="GJ26">
+        <f t="shared" si="3"/>
+        <v>-4.6337438058311475E-3</v>
+      </c>
+      <c r="GK26">
+        <f t="shared" si="3"/>
+        <v>3.6892782988649175E-2</v>
+      </c>
+      <c r="GL26">
+        <f t="shared" si="3"/>
+        <v>-1.5102546248979554E-3</v>
+      </c>
+      <c r="GM26">
+        <f t="shared" si="3"/>
+        <v>1.8837437312169469E-2</v>
+      </c>
+      <c r="GN26">
+        <f t="shared" si="3"/>
+        <v>8.2435445636860338E-3</v>
+      </c>
+      <c r="GO26">
+        <f t="shared" si="3"/>
+        <v>2.6570919367119306E-2</v>
+      </c>
+      <c r="GP26">
+        <f t="shared" si="3"/>
+        <v>-2.3003317618444319E-2</v>
+      </c>
+      <c r="GQ26">
+        <f t="shared" si="3"/>
+        <v>-1.3379014399537703E-2</v>
+      </c>
+      <c r="GR26">
+        <f t="shared" si="3"/>
+        <v>-3.2827323238279305E-2</v>
+      </c>
+      <c r="GS26">
+        <f t="shared" si="3"/>
+        <v>4.2648053048246592E-2</v>
+      </c>
+      <c r="GT26">
+        <f t="shared" si="3"/>
+        <v>4.9306631885752905E-2</v>
+      </c>
+      <c r="GU26">
+        <f t="shared" si="3"/>
+        <v>2.0786767144010065E-2</v>
+      </c>
+      <c r="GV26">
+        <f t="shared" si="3"/>
+        <v>-3.5844436073879327E-2</v>
+      </c>
+      <c r="GW26">
+        <f t="shared" si="3"/>
+        <v>-1.6617909580384893E-2</v>
+      </c>
+      <c r="GX26">
+        <f t="shared" ref="GX26:HB26" si="4">GX25-GX24</f>
+        <v>2.7630720807486409E-2</v>
+      </c>
+      <c r="GY26">
+        <f t="shared" si="4"/>
+        <v>2.4687969656123077E-3</v>
+      </c>
+      <c r="GZ26">
+        <f t="shared" si="4"/>
+        <v>-1.4116994464155264E-2</v>
+      </c>
+      <c r="HA26">
+        <f t="shared" si="4"/>
+        <v>-1.1766847990449802E-2</v>
+      </c>
+      <c r="HB26">
+        <f t="shared" si="4"/>
+        <v>1.4599612998501987E-2</v>
+      </c>
+      <c r="HC26">
+        <f>COUNTIF(M26:HB26,"&gt;0")</f>
+        <v>115</v>
+      </c>
+      <c r="HD26">
+        <v>198</v>
+      </c>
+      <c r="HE26">
+        <f>HC26/HD26</f>
+        <v>0.58080808080808077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C27" s="3">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2">
+        <v>23600</v>
+      </c>
+      <c r="E27" s="2">
+        <v>23600</v>
+      </c>
+      <c r="F27" s="2">
+        <v>98184189200</v>
+      </c>
+      <c r="G27" s="2">
+        <v>98184189200</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="HC27">
+        <f>COUNTIF(CR26:HB26,"&gt;0")</f>
+        <v>70</v>
+      </c>
+      <c r="HD27">
+        <v>115</v>
+      </c>
+      <c r="HE27">
+        <f>HC27/HD27</f>
+        <v>0.60869565217391308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8450</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8110</v>
+      </c>
+      <c r="F28" s="2">
+        <v>137891510900</v>
+      </c>
+      <c r="G28" s="2">
+        <v>132343213420</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.0236686390532572E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C29" s="3">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2">
+        <v>22450</v>
+      </c>
+      <c r="E29" s="2">
+        <v>21350</v>
+      </c>
+      <c r="F29" s="2">
+        <v>296990286700</v>
+      </c>
+      <c r="G29" s="2">
+        <v>282438424100</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.8997772828507813E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C30" s="3">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1990</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2135</v>
+      </c>
+      <c r="F30" s="2">
+        <v>198990183330</v>
+      </c>
+      <c r="G30" s="2">
+        <v>213489468045</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2864321608040239E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C31" s="3">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3350</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3185</v>
+      </c>
+      <c r="F31" s="2">
+        <v>206273539850</v>
+      </c>
+      <c r="G31" s="2">
+        <v>196113801520</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.9253731343283591E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:213" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C32" s="3">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7960</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8090</v>
+      </c>
+      <c r="F32" s="2">
+        <v>173408090560</v>
+      </c>
+      <c r="G32" s="2">
+        <v>176240132240</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6331658291457218E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C33" s="3">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3845</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3775</v>
+      </c>
+      <c r="F33" s="2">
+        <v>163206365705</v>
+      </c>
+      <c r="G33" s="2">
+        <v>160235118475</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8205461638491571E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="C34" s="3">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2">
+        <v>14500</v>
+      </c>
+      <c r="E34" s="2">
+        <v>15350</v>
+      </c>
+      <c r="F34" s="2">
+        <v>174632200000</v>
+      </c>
+      <c r="G34" s="2">
+        <v>184869260000</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
+        <v>5.862068965517242E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C35" s="3">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10700</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10300</v>
+      </c>
+      <c r="F35" s="2">
+        <v>127660929600</v>
+      </c>
+      <c r="G35" s="2">
+        <v>122888558400</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.7383177570093462E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="C36" s="3">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2">
+        <v>11050</v>
+      </c>
+      <c r="E36" s="2">
+        <v>11100</v>
+      </c>
+      <c r="F36" s="2">
+        <v>190060000000</v>
+      </c>
+      <c r="G36" s="2">
+        <v>190920000000</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5248868778280382E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="C37" s="3">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2">
+        <v>49200</v>
+      </c>
+      <c r="E37" s="2">
+        <v>46600</v>
+      </c>
+      <c r="F37" s="2">
+        <v>308750418000</v>
+      </c>
+      <c r="G37" s="2">
+        <v>292434339000</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.2845528455284563E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C38" s="3">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10300</v>
+      </c>
+      <c r="E38" s="2">
+        <v>9610</v>
+      </c>
+      <c r="F38" s="2">
+        <v>264015473100</v>
+      </c>
+      <c r="G38" s="2">
+        <v>246714111780</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.6990291262135959E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" tooltip="Quantiwise7G" display="     Refresh     "/>
+    <hyperlink ref="K1" tooltip="Quantiwise7G" display="     Refresh     "/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -7901,7 +11283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
@@ -7921,20 +11303,20 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1049</v>
+        <v>1079</v>
       </c>
       <c r="G1" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="1">
         <f>AVERAGE(H14:H38)</f>
-        <v>-1.5760302174503943E-2</v>
+        <v>-6.344037702419647E-3</v>
       </c>
       <c r="K1" s="15" t="s">
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>1069</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -7943,22 +11325,22 @@
       </c>
       <c r="H2">
         <f>COUNTIF(H14:H38,"&gt;=0")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>1050</v>
+        <v>983</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
       </c>
       <c r="H3">
         <f>COUNTIF(H14:H38,"&lt;0")</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1070</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -7976,7 +11358,7 @@
       </c>
       <c r="H4" s="1">
         <f>MAX(H14:H38)</f>
-        <v>7.0811744386873876E-2</v>
+        <v>0.13298791018998268</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>19</v>
@@ -7997,7 +11379,7 @@
       </c>
       <c r="H5" s="1">
         <f>MIN(H14:H38)</f>
-        <v>-7.547169811320753E-2</v>
+        <v>-0.13355408388520973</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -8012,7 +11394,7 @@
       </c>
       <c r="H6" s="1">
         <f>O14/N14-1</f>
-        <v>9.6479758292811191E-4</v>
+        <v>2.3282089040661091E-2</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -8029,7 +11411,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>1051</v>
+        <v>1080</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>13</v>
@@ -8048,7 +11430,7 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>984</v>
+        <v>1111</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>13</v>
@@ -8069,7 +11451,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
-        <v>1052</v>
+        <v>1081</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9">
@@ -8087,7 +11469,7 @@
       <c r="H10" s="1"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>1071</v>
+        <v>1112</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9">
@@ -8106,7 +11488,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>1011</v>
+        <v>1082</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -8125,7 +11507,7 @@
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>1072</v>
+        <v>1113</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>9</v>
@@ -8155,7 +11537,7 @@
       <c r="G12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>1075</v>
+        <v>987</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -8165,46 +11547,46 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>1053</v>
+        <v>1001</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>986</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1054</v>
+        <v>1083</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>988</v>
+        <v>1084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>988</v>
+        <v>1084</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1014</v>
+        <v>1085</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>989</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1073</v>
+        <v>1114</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>1074</v>
+        <v>1115</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>1013</v>
+        <v>1116</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>1076</v>
+        <v>1117</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>992</v>
+        <v>1117</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>989</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>1014</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -8212,7 +11594,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1055</v>
+        <v>1086</v>
       </c>
       <c r="C14" s="3">
         <v>12</v>
@@ -8221,36 +11603,36 @@
         <v>2316000</v>
       </c>
       <c r="E14" s="2">
-        <v>2480000</v>
+        <v>2624000</v>
       </c>
       <c r="F14" s="2">
         <v>335262855404000</v>
       </c>
       <c r="G14" s="2">
-        <v>359399768320000</v>
+        <v>379467824956000</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ref="H14:H38" si="0">E14/D14-1</f>
-        <v>7.0811744386873876E-2</v>
+        <v>0.13298791018998268</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>1077</v>
+        <v>1119</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="6">
         <v>2363.19</v>
       </c>
       <c r="O14" s="6">
-        <v>2365.4699999999998</v>
+        <v>2418.21</v>
       </c>
       <c r="P14" s="5">
         <v>1535629495111100</v>
       </c>
       <c r="Q14" s="5">
-        <v>1539474471819830</v>
+        <v>1573692545495320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -8258,7 +11640,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1056</v>
+        <v>1087</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
@@ -8267,17 +11649,17 @@
         <v>12050</v>
       </c>
       <c r="E15" s="2">
-        <v>11700</v>
+        <v>12950</v>
       </c>
       <c r="F15" s="2">
         <v>262782652450</v>
       </c>
       <c r="G15" s="2">
-        <v>255149961300</v>
+        <v>282409572550</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>-2.9045643153526979E-2</v>
+        <v>7.4688796680497882E-2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -8285,7 +11667,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1057</v>
+        <v>1088</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
@@ -8294,17 +11676,17 @@
         <v>7170</v>
       </c>
       <c r="E16" s="2">
-        <v>7280</v>
+        <v>7430</v>
       </c>
       <c r="F16" s="2">
         <v>110919900000</v>
       </c>
       <c r="G16" s="2">
-        <v>112621600000</v>
+        <v>114942100000</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
-        <v>1.5341701534170138E-2</v>
+        <v>3.6262203626220346E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
@@ -8312,7 +11694,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>994</v>
+        <v>1089</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
@@ -8321,17 +11703,17 @@
         <v>5410</v>
       </c>
       <c r="E17" s="2">
-        <v>5270</v>
+        <v>5110</v>
       </c>
       <c r="F17" s="2">
         <v>231747185380</v>
       </c>
       <c r="G17" s="2">
-        <v>225750030860</v>
+        <v>218896139980</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="0"/>
-        <v>-2.5878003696857665E-2</v>
+        <v>-5.5452865064695045E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
@@ -8339,7 +11721,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>995</v>
+        <v>1066</v>
       </c>
       <c r="C18" s="3">
         <v>12</v>
@@ -8348,17 +11730,17 @@
         <v>16450</v>
       </c>
       <c r="E18" s="2">
-        <v>15950</v>
+        <v>16400</v>
       </c>
       <c r="F18" s="2">
         <v>170816800000</v>
       </c>
       <c r="G18" s="2">
-        <v>165624800000</v>
+        <v>170297600000</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="0"/>
-        <v>-3.039513677811545E-2</v>
+        <v>-3.0395136778115228E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -8366,7 +11748,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>996</v>
+        <v>1070</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
@@ -8375,17 +11757,17 @@
         <v>3845</v>
       </c>
       <c r="E19" s="2">
-        <v>3745</v>
+        <v>3775</v>
       </c>
       <c r="F19" s="2">
         <v>163206365705</v>
       </c>
       <c r="G19" s="2">
-        <v>158961726805</v>
+        <v>160235118475</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="0"/>
-        <v>-2.6007802340702213E-2</v>
+        <v>-1.8205461638491571E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -8393,7 +11775,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>997</v>
+        <v>1090</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
@@ -8402,17 +11784,17 @@
         <v>11900</v>
       </c>
       <c r="E20" s="2">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="F20" s="2">
         <v>455770000000</v>
       </c>
       <c r="G20" s="2">
-        <v>425130000000</v>
+        <v>436620000000</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
-        <v>-6.7226890756302504E-2</v>
+        <v>-4.2016806722689037E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
@@ -8420,7 +11802,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1058</v>
+        <v>1091</v>
       </c>
       <c r="C21" s="3">
         <v>12</v>
@@ -8429,17 +11811,17 @@
         <v>9060</v>
       </c>
       <c r="E21" s="2">
-        <v>8630</v>
+        <v>7850</v>
       </c>
       <c r="F21" s="2">
         <v>110429893800</v>
       </c>
       <c r="G21" s="2">
-        <v>105188739900</v>
+        <v>95681530500</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>-4.7461368653421654E-2</v>
+        <v>-0.13355408388520973</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -8447,7 +11829,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1059</v>
+        <v>1092</v>
       </c>
       <c r="C22" s="3">
         <v>12</v>
@@ -8456,17 +11838,17 @@
         <v>2605</v>
       </c>
       <c r="E22" s="2">
-        <v>2590</v>
+        <v>2530</v>
       </c>
       <c r="F22" s="2">
         <v>108392252550</v>
       </c>
       <c r="G22" s="2">
-        <v>107768112900</v>
+        <v>105271554300</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="0"/>
-        <v>-5.7581573896353655E-3</v>
+        <v>-2.8790786948176605E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -8474,7 +11856,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>998</v>
+        <v>1093</v>
       </c>
       <c r="C23" s="3">
         <v>12</v>
@@ -8483,17 +11865,17 @@
         <v>14700</v>
       </c>
       <c r="E23" s="2">
-        <v>14000</v>
+        <v>13850</v>
       </c>
       <c r="F23" s="2">
         <v>130195930200</v>
       </c>
       <c r="G23" s="2">
-        <v>123996124000</v>
+        <v>122667594100</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="0"/>
-        <v>-4.7619047619047672E-2</v>
+        <v>-5.7823129251700633E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -8501,7 +11883,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1060</v>
+        <v>1094</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
@@ -8510,17 +11892,17 @@
         <v>19700</v>
       </c>
       <c r="E24" s="2">
-        <v>18850</v>
+        <v>19000</v>
       </c>
       <c r="F24" s="2">
         <v>883872354900</v>
       </c>
       <c r="G24" s="2">
-        <v>845735730450</v>
+        <v>852465723000</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="0"/>
-        <v>-4.3147208121827374E-2</v>
+        <v>-3.5532994923857864E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -8528,7 +11910,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>999</v>
+        <v>1095</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
@@ -8537,17 +11919,17 @@
         <v>1590</v>
       </c>
       <c r="E25" s="2">
-        <v>1470</v>
+        <v>1540</v>
       </c>
       <c r="F25" s="2">
         <v>144630015660</v>
       </c>
       <c r="G25" s="2">
-        <v>133714542780</v>
+        <v>157611671140</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="0"/>
-        <v>-7.547169811320753E-2</v>
+        <v>-3.1446540880503138E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -8555,7 +11937,7 @@
         <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1061</v>
+        <v>1096</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
@@ -8564,17 +11946,17 @@
         <v>13000</v>
       </c>
       <c r="E26" s="2">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="F26" s="2">
         <v>134520828000</v>
       </c>
       <c r="G26" s="2">
-        <v>131416501200</v>
+        <v>132451276800</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="0"/>
-        <v>-2.3076923076923106E-2</v>
+        <v>-1.538461538461533E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
@@ -8582,7 +11964,7 @@
         <v>33</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1062</v>
+        <v>1097</v>
       </c>
       <c r="C27" s="3">
         <v>12</v>
@@ -8591,17 +11973,17 @@
         <v>10950</v>
       </c>
       <c r="E27" s="2">
-        <v>11050</v>
+        <v>11300</v>
       </c>
       <c r="F27" s="2">
         <v>321241365450</v>
       </c>
       <c r="G27" s="2">
-        <v>324175076550</v>
+        <v>331509354300</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="0"/>
-        <v>9.1324200913243114E-3</v>
+        <v>3.1963470319634757E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -8609,7 +11991,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1063</v>
+        <v>1098</v>
       </c>
       <c r="C28" s="3">
         <v>12</v>
@@ -8618,17 +12000,17 @@
         <v>15950</v>
       </c>
       <c r="E28" s="2">
-        <v>16100</v>
+        <v>15800</v>
       </c>
       <c r="F28" s="2">
         <v>110351941150</v>
       </c>
       <c r="G28" s="2">
-        <v>111389733700</v>
+        <v>109314148600</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="0"/>
-        <v>9.4043887147334804E-3</v>
+        <v>-9.4043887147335914E-3</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -8636,7 +12018,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>990</v>
+        <v>1099</v>
       </c>
       <c r="C29" s="3">
         <v>12</v>
@@ -8645,17 +12027,17 @@
         <v>49200</v>
       </c>
       <c r="E29" s="2">
-        <v>48600</v>
+        <v>46600</v>
       </c>
       <c r="F29" s="2">
         <v>308750418000</v>
       </c>
       <c r="G29" s="2">
-        <v>304985169000</v>
+        <v>292434339000</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2195121951219523E-2</v>
+        <v>-5.2845528455284563E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -8663,7 +12045,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="C30" s="3">
         <v>12</v>
@@ -8672,17 +12054,17 @@
         <v>11050</v>
       </c>
       <c r="E30" s="2">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="F30" s="2">
         <v>190060000000</v>
       </c>
       <c r="G30" s="2">
-        <v>189200000000</v>
+        <v>190920000000</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="0"/>
-        <v>-4.5248868778280382E-3</v>
+        <v>4.5248868778280382E-3</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -8690,7 +12072,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1064</v>
+        <v>1101</v>
       </c>
       <c r="C31" s="3">
         <v>12</v>
@@ -8699,17 +12081,17 @@
         <v>7960</v>
       </c>
       <c r="E31" s="2">
-        <v>8190</v>
+        <v>8090</v>
       </c>
       <c r="F31" s="2">
         <v>173408090560</v>
       </c>
       <c r="G31" s="2">
-        <v>178418625840</v>
+        <v>176240132240</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="0"/>
-        <v>2.8894472361808976E-2</v>
+        <v>1.6331658291457218E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -8717,7 +12099,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1001</v>
+        <v>1102</v>
       </c>
       <c r="C32" s="3">
         <v>12</v>
@@ -8726,17 +12108,17 @@
         <v>3030</v>
       </c>
       <c r="E32" s="2">
-        <v>2870</v>
+        <v>2890</v>
       </c>
       <c r="F32" s="2">
         <v>105734373990</v>
       </c>
       <c r="G32" s="2">
-        <v>100151040710</v>
+        <v>100848957370</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="0"/>
-        <v>-5.2805280528052778E-2</v>
+        <v>-4.6204620462046209E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -8744,7 +12126,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1002</v>
+        <v>1103</v>
       </c>
       <c r="C33" s="3">
         <v>12</v>
@@ -8753,17 +12135,17 @@
         <v>14500</v>
       </c>
       <c r="E33" s="2">
-        <v>14900</v>
+        <v>15350</v>
       </c>
       <c r="F33" s="2">
         <v>174632200000</v>
       </c>
       <c r="G33" s="2">
-        <v>179449640000</v>
+        <v>184869260000</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="0"/>
-        <v>2.7586206896551779E-2</v>
+        <v>5.862068965517242E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
@@ -8771,7 +12153,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1003</v>
+        <v>1104</v>
       </c>
       <c r="C34" s="3">
         <v>12</v>
@@ -8780,17 +12162,17 @@
         <v>79200</v>
       </c>
       <c r="E34" s="2">
-        <v>77100</v>
+        <v>77400</v>
       </c>
       <c r="F34" s="2">
         <v>136224000000</v>
       </c>
       <c r="G34" s="2">
-        <v>132612000000</v>
+        <v>133128000000</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="0"/>
-        <v>-2.6515151515151492E-2</v>
+        <v>-2.2727272727272707E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
@@ -8798,7 +12180,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1065</v>
+        <v>1105</v>
       </c>
       <c r="C35" s="3">
         <v>12</v>
@@ -8807,17 +12189,17 @@
         <v>28600</v>
       </c>
       <c r="E35" s="2">
-        <v>27700</v>
+        <v>27650</v>
       </c>
       <c r="F35" s="2">
         <v>143141541400</v>
       </c>
       <c r="G35" s="2">
-        <v>138637087300</v>
+        <v>138386839850</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="0"/>
-        <v>-3.1468531468531458E-2</v>
+        <v>-3.321678321678323E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -8825,7 +12207,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1066</v>
+        <v>1106</v>
       </c>
       <c r="C36" s="3">
         <v>12</v>
@@ -8834,17 +12216,17 @@
         <v>4965</v>
       </c>
       <c r="E36" s="2">
-        <v>4870</v>
+        <v>5120</v>
       </c>
       <c r="F36" s="2">
         <v>111069264390</v>
       </c>
       <c r="G36" s="2">
-        <v>108944072020</v>
+        <v>114536683520</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="0"/>
-        <v>-1.9133937562940573E-2</v>
+        <v>3.1218529707955689E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
@@ -8852,7 +12234,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1067</v>
+        <v>1107</v>
       </c>
       <c r="C37" s="3">
         <v>12</v>
@@ -8861,17 +12243,17 @@
         <v>3585</v>
       </c>
       <c r="E37" s="2">
-        <v>3570</v>
+        <v>3685</v>
       </c>
       <c r="F37" s="2">
         <v>216226019820</v>
       </c>
       <c r="G37" s="2">
-        <v>215321308440</v>
+        <v>222257429020</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="0"/>
-        <v>-4.1841004184099972E-3</v>
+        <v>2.7894002789400352E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -8879,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1068</v>
+        <v>1108</v>
       </c>
       <c r="C38" s="3">
         <v>12</v>
@@ -8888,17 +12270,17 @@
         <v>11950</v>
       </c>
       <c r="E38" s="2">
-        <v>12150</v>
+        <v>12100</v>
       </c>
       <c r="F38" s="2">
         <v>115947336700</v>
       </c>
       <c r="G38" s="2">
-        <v>117887877900</v>
+        <v>117402742600</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="0"/>
-        <v>1.6736401673640211E-2</v>
+        <v>1.2552301255230214E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8912,12 +12294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:HG38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8931,7 +12313,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>1078</v>
+        <v>1026</v>
       </c>
       <c r="G1" t="s">
         <v>24</v>
@@ -8944,7 +12326,7 @@
         <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>1100</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
@@ -8958,7 +12340,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
-        <v>1079</v>
+        <v>1027</v>
       </c>
       <c r="G3" t="s">
         <v>21</v>
@@ -8968,7 +12350,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>1101</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -9022,7 +12404,7 @@
       </c>
       <c r="H6" s="1">
         <f>O14/N14-1</f>
-        <v>9.6479758292811191E-4</v>
+        <v>2.3282089040661091E-2</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -9039,7 +12421,7 @@
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>1080</v>
+        <v>1028</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>13</v>
@@ -9058,7 +12440,7 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>1102</v>
+        <v>1122</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>13</v>
@@ -9097,7 +12479,7 @@
       <c r="H10" s="1"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
-        <v>1103</v>
+        <v>985</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9">
@@ -9116,7 +12498,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>1081</v>
+        <v>1029</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>9</v>
@@ -9135,7 +12517,7 @@
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
-        <v>991</v>
+        <v>1123</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>9</v>
@@ -9156,7 +12538,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
-        <v>1082</v>
+        <v>1030</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -9165,7 +12547,7 @@
       <c r="G12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10" t="s">
-        <v>1104</v>
+        <v>987</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -9175,40 +12557,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>986</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>988</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>1083</v>
+        <v>1031</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1084</v>
+        <v>1032</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1084</v>
+        <v>1032</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>1004</v>
+        <v>1124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>986</v>
+        <v>1125</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>1105</v>
+        <v>992</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>1076</v>
+        <v>1126</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>989</v>
@@ -9222,7 +12604,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C14" s="3">
         <v>12</v>
@@ -9247,20 +12629,20 @@
         <v>44</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>993</v>
+        <v>1127</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="6">
         <v>2363.19</v>
       </c>
       <c r="O14" s="6">
-        <v>2365.4699999999998</v>
+        <v>2418.21</v>
       </c>
       <c r="P14" s="5">
         <v>1535629495111100</v>
       </c>
       <c r="Q14" s="5">
-        <v>1539474471819830</v>
+        <v>1573692545495320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -9268,7 +12650,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1056</v>
+        <v>1022</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
@@ -9295,7 +12677,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1085</v>
+        <v>1033</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
@@ -9322,7 +12704,7 @@
         <v>41</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1066</v>
+        <v>1025</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
@@ -9347,7 +12729,7 @@
         <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>1106</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="18" spans="1:212" x14ac:dyDescent="0.4">
@@ -9355,7 +12737,7 @@
         <v>28</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1086</v>
+        <v>1034</v>
       </c>
       <c r="C18" s="3">
         <v>12</v>
@@ -9382,7 +12764,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1087</v>
+        <v>1035</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
@@ -9404,7 +12786,7 @@
         <v>-3.039513677811545E-2</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>1107</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="20" spans="1:212" x14ac:dyDescent="0.4">
@@ -9412,7 +12794,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1088</v>
+        <v>1036</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
@@ -9448,7 +12830,7 @@
         <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1089</v>
+        <v>1037</v>
       </c>
       <c r="C21" s="3">
         <v>12</v>
@@ -9480,7 +12862,7 @@
         <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1090</v>
+        <v>1038</v>
       </c>
       <c r="C22" s="3">
         <v>12</v>
@@ -9510,7 +12892,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1091</v>
+        <v>1039</v>
       </c>
       <c r="C23" s="3">
         <v>12</v>
@@ -9540,7 +12922,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1092</v>
+        <v>1040</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
@@ -9567,7 +12949,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C25" s="3">
         <v>12</v>
@@ -9590,607 +12972,607 @@
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11" t="s">
-        <v>1108</v>
+        <v>1050</v>
       </c>
       <c r="M25" s="11" t="s">
         <v>13</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="O25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="P25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="U25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="V25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="X25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="Y25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="Z25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AA25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AB25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AC25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AD25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AF25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AG25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AH25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AI25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AJ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AK25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AL25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AM25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AN25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AO25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AP25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AQ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AR25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AS25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AT25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AU25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AV25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AW25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AX25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AY25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AZ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BA25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BB25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BC25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BD25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BE25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BF25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BG25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BH25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BI25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BJ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BK25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BL25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BM25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BN25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BO25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BP25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BQ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BR25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BS25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BT25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BU25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BV25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BW25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BX25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BY25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="BZ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CA25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CB25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CC25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CD25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CE25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CF25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CG25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CH25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CI25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CJ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CK25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CL25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CM25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CN25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CO25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CP25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CQ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CR25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CS25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CT25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CU25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CV25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CW25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CX25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CY25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="CZ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DA25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DB25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DC25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DD25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DE25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DF25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DG25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DH25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DI25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DJ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DK25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DL25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DM25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DN25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DO25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DP25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DQ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DR25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DS25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DT25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DU25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DV25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DW25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DX25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DY25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="DZ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EA25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EB25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EC25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="ED25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EE25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EF25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EG25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EH25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EI25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EJ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EK25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EL25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EM25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EN25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EO25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EP25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EQ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="ER25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="ES25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="ET25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EU25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EV25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EW25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EX25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EY25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="EZ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FA25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FB25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FC25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FD25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FE25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FF25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FG25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FH25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FI25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FJ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FK25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FL25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FM25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FN25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FO25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FP25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FQ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FR25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FS25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FT25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FU25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FV25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FW25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FX25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FY25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="FZ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GA25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GB25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GC25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GD25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GE25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GF25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GG25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GH25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GI25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GJ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GK25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GL25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GM25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GN25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GO25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GP25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GQ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GR25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GS25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GT25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GU25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GV25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GW25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GX25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GY25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="GZ25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="HA25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="HB25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="HC25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="HD25" s="11" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:212" x14ac:dyDescent="0.4">
@@ -10198,7 +13580,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1093</v>
+        <v>1041</v>
       </c>
       <c r="C26" s="3">
         <v>12</v>
@@ -10221,7 +13603,7 @@
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9" t="s">
-        <v>1109</v>
+        <v>1051</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9">
@@ -10827,7 +14209,7 @@
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1060</v>
+        <v>1024</v>
       </c>
       <c r="C27" s="3">
         <v>12</v>
@@ -10850,7 +14232,7 @@
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9" t="s">
-        <v>1110</v>
+        <v>1052</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>9</v>
@@ -11481,7 +14863,7 @@
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10" t="s">
-        <v>1113</v>
+        <v>1055</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -11689,7 +15071,7 @@
         <v>38</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1094</v>
+        <v>1042</v>
       </c>
       <c r="C29" s="3">
         <v>12</v>
@@ -11711,610 +15093,610 @@
         <v>-5.2805280528052778E-2</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>1111</v>
+        <v>1053</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>1112</v>
+        <v>1054</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>1114</v>
+        <v>1056</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="X29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="Y29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="Z29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AB29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="AC29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AF29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AG29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AH29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AI29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AJ29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="AK29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="AL29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AM29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AN29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="AO29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AP29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AQ29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AR29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AS29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AT29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="AU29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AV29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="AW29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="AX29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="AY29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="AZ29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BA29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="BB29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="BC29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BD29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BE29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="BF29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BG29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BH29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BI29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BJ29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="BK29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BL29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="BM29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BN29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="BO29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BP29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BQ29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="BR29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BS29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BT29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="BU29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BV29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="BW29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BX29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BY29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="BZ29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CA29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CB29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="CC29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CD29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CE29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CF29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CG29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="CH29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CI29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="CJ29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="CK29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="CL29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="CM29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CN29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CO29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CP29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CQ29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="CR29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="CS29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CT29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="CU29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="CV29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CW29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="CX29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="CY29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="CZ29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="DA29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="DB29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="DC29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DD29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DE29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DF29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DG29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="DH29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="DI29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DJ29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DK29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="DL29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="DM29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DN29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="DO29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DP29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DQ29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="DR29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="DS29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DT29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DU29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DV29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DW29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DX29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DY29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="DZ29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="EA29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="EB29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="EC29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="ED29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="EE29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="EF29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="EG29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="EH29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="EI29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="EJ29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="EK29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="EL29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="EM29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="EN29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="EO29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="EP29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="EQ29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="ER29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="ES29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="ET29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="EU29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="EV29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="EW29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="EX29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="EY29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="EZ29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FA29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FB29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="FC29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="FD29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="FE29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FF29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FG29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="FH29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FI29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="FJ29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FK29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FL29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FM29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FN29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="FO29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FP29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FQ29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="FR29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FS29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="FT29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FU29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FV29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="FW29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FX29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FY29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="FZ29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GA29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="GB29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GC29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GD29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GE29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GF29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GG29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GH29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GI29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GJ29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GK29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GL29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GM29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GN29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GO29" s="7" t="s">
-        <v>1116</v>
+        <v>1058</v>
       </c>
       <c r="GP29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GQ29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GR29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GS29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GT29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GU29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GV29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GW29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GX29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="GY29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="GZ29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="HA29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
       <c r="HB29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="HC29" s="7" t="s">
-        <v>1115</v>
+        <v>1057</v>
       </c>
       <c r="HD29" s="7" t="s">
-        <v>1117</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="30" spans="1:212" x14ac:dyDescent="0.4">
@@ -12322,7 +15704,7 @@
         <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1095</v>
+        <v>1043</v>
       </c>
       <c r="C30" s="3">
         <v>12</v>
@@ -12344,10 +15726,10 @@
         <v>-1.9328585961342792E-2</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>1118</v>
+        <v>1060</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="19">
@@ -12953,7 +16335,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1096</v>
+        <v>1044</v>
       </c>
       <c r="C31" s="3">
         <v>12</v>
@@ -13772,7 +17154,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1097</v>
+        <v>1045</v>
       </c>
       <c r="C32" s="3">
         <v>12</v>
@@ -13794,7 +17176,7 @@
         <v>-0.15583075335397312</v>
       </c>
       <c r="N32" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="O32">
         <v>0.90892918163576897</v>
@@ -14396,7 +17778,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1098</v>
+        <v>1046</v>
       </c>
       <c r="C33" s="3">
         <v>12</v>
@@ -15264,7 +18646,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1099</v>
+        <v>1047</v>
       </c>
       <c r="C35" s="3">
         <v>12</v>
@@ -15291,7 +18673,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C36" s="3">
         <v>12</v>
@@ -15318,7 +18700,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C37" s="3">
         <v>12</v>
@@ -15379,7 +18761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU443"/>
   <sheetViews>
@@ -21130,7 +24512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU443"/>
   <sheetViews>
@@ -26884,7 +30266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU443"/>
   <sheetViews>
@@ -36265,12 +39647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
